--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dir2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Data day of the week</t>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">Courbe de variation hebdomadaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumes de trafic par direction</t>
   </si>
 </sst>
 </file>
@@ -945,7 +951,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
@@ -961,7 +967,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart166.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart169.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1110,8 +1116,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="83730222"/>
-        <c:axId val="76821717"/>
+        <c:axId val="23339917"/>
+        <c:axId val="57558670"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1405,11 +1411,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83730222"/>
-        <c:axId val="76821717"/>
+        <c:axId val="23339917"/>
+        <c:axId val="57558670"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83730222"/>
+        <c:axId val="23339917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1481,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76821717"/>
+        <c:crossAx val="57558670"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76821717"/>
+        <c:axId val="57558670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1565,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83730222"/>
+        <c:crossAx val="23339917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,7 +1617,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart167.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart170.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3886,11 +3892,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="62721449"/>
-        <c:axId val="58664573"/>
+        <c:axId val="20803113"/>
+        <c:axId val="13847973"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62721449"/>
+        <c:axId val="20803113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3918,7 +3924,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58664573"/>
+        <c:crossAx val="13847973"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3926,7 +3932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58664573"/>
+        <c:axId val="13847973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +3969,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62721449"/>
+        <c:crossAx val="20803113"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4011,7 +4017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart168.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart171.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4132,11 +4138,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="99824254"/>
-        <c:axId val="8001742"/>
+        <c:axId val="84177128"/>
+        <c:axId val="84181364"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99824254"/>
+        <c:axId val="84177128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,7 +4170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8001742"/>
+        <c:crossAx val="84181364"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4172,7 +4178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8001742"/>
+        <c:axId val="84181364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,7 +4215,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99824254"/>
+        <c:crossAx val="84177128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4245,6 +4251,182 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart172.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data_hour!$C$30:$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Direction 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Direction 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$C$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4354,6 +4536,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>197280</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285120</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="197280" y="9239400"/>
+        <a:ext cx="5760720" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7437,10 +7649,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7821,6 +8033,34 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">SUM(B5:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">SUM(C5:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">SUM(D5:D28)</f>
         <v>0</v>
       </c>
     </row>
@@ -7850,7 +8090,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7863,7 +8103,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0</v>
@@ -7871,7 +8111,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0</v>
@@ -7879,7 +8119,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0</v>
@@ -7887,7 +8127,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0</v>
@@ -7895,7 +8135,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0</v>
@@ -7903,7 +8143,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>0</v>
@@ -7911,7 +8151,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
@@ -7935,7 +8175,7 @@
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -7984,7 +8224,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="12" t="n">
         <f aca="false">Data_count!B13</f>
@@ -7998,7 +8238,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="12" t="n">
         <f aca="false">Data_count!B14</f>
@@ -8068,31 +8308,31 @@
         <v>20</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="27" t="e">
         <f aca="false">D11+E11</f>
@@ -8134,7 +8374,7 @@
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="33" t="e">
         <f aca="false">D12+E12</f>
@@ -8175,7 +8415,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8183,7 +8423,7 @@
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -8198,7 +8438,7 @@
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -8216,7 +8456,7 @@
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -8234,7 +8474,7 @@
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -8252,7 +8492,7 @@
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -8267,7 +8507,7 @@
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -8282,7 +8522,7 @@
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -8415,7 +8655,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="12" t="n">
         <f aca="false">Data_count!B13</f>
@@ -8429,7 +8669,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="12" t="n">
         <f aca="false">Data_count!B14</f>
@@ -8446,7 +8686,7 @@
       <c r="A6" s="9"/>
       <c r="C6" s="13"/>
       <c r="G6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="7"/>
       <c r="N6" s="41"/>
@@ -8513,34 +8753,34 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="45"/>
       <c r="L13" s="49"/>
@@ -8549,7 +8789,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>0</v>
@@ -8587,7 +8827,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="52" t="n">
         <v>0</v>
@@ -8625,7 +8865,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="52" t="n">
         <v>0</v>
@@ -8663,7 +8903,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="52" t="n">
         <v>0</v>
@@ -8701,7 +8941,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="52" t="n">
         <v>0</v>
@@ -8739,7 +8979,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="52" t="n">
         <v>0</v>
@@ -8777,7 +9017,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="52" t="n">
         <v>0</v>
@@ -8815,7 +9055,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="52" t="n">
         <v>0</v>
@@ -8853,7 +9093,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="52" t="n">
         <v>0</v>
@@ -8891,7 +9131,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="52" t="n">
         <v>0</v>
@@ -8929,7 +9169,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="52" t="n">
         <v>0</v>
@@ -8967,7 +9207,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="52" t="n">
         <v>0</v>
@@ -9005,7 +9245,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="52" t="n">
         <v>0</v>
@@ -9043,7 +9283,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="52" t="n">
         <v>0</v>
@@ -9081,7 +9321,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="52" t="n">
         <v>0</v>
@@ -9119,7 +9359,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="52" t="n">
         <v>0</v>
@@ -9157,7 +9397,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="52" t="n">
         <v>0</v>
@@ -9195,7 +9435,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="52" t="n">
         <v>0</v>
@@ -9233,7 +9473,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="52" t="n">
         <v>0</v>
@@ -9271,7 +9511,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="52" t="n">
         <v>0</v>
@@ -9309,7 +9549,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="52" t="n">
         <v>0</v>
@@ -9347,7 +9587,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="52" t="n">
         <v>0</v>
@@ -9385,7 +9625,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="52" t="n">
         <v>0</v>
@@ -9423,7 +9663,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="52" t="n">
         <v>0</v>
@@ -9477,7 +9717,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -9495,7 +9735,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="52" t="n">
         <f aca="false">SUM(B21:B32)</f>
@@ -9540,7 +9780,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="52" t="n">
         <f aca="false">SUM(B20:B35)</f>
@@ -9585,7 +9825,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="52" t="n">
         <f aca="false">SUM(B20:B37)</f>
@@ -9630,7 +9870,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="52" t="n">
         <f aca="false">SUM(B14:B37)</f>
@@ -9707,7 +9947,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -9725,34 +9965,34 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I47" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K47" s="59"/>
       <c r="L47" s="59"/>
@@ -9761,7 +10001,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="52" t="n">
         <v>0</v>
@@ -9799,7 +10039,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="52" t="n">
         <v>0</v>
@@ -9837,7 +10077,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="52" t="n">
         <v>0</v>
@@ -9875,7 +10115,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="52" t="n">
         <v>0</v>
@@ -9913,7 +10153,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="52" t="n">
         <v>0</v>
@@ -9951,7 +10191,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="52" t="n">
         <v>0</v>
@@ -9989,7 +10229,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="52" t="n">
         <v>0</v>
@@ -10027,7 +10267,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="52" t="n">
         <v>0</v>
@@ -10065,7 +10305,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="52" t="n">
         <v>0</v>
@@ -10103,7 +10343,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="52" t="n">
         <v>0</v>
@@ -10141,7 +10381,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="52" t="n">
         <v>0</v>
@@ -10179,7 +10419,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="52" t="n">
         <v>0</v>
@@ -10543,8 +10783,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M51" activeCellId="0" sqref="M51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O61" activeCellId="0" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10590,7 +10830,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="12" t="n">
         <f aca="false">Data_count!B13</f>
@@ -10604,7 +10844,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="12" t="n">
         <f aca="false">Data_count!B14</f>
@@ -10659,7 +10899,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -10687,7 +10927,12 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="61" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="61" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekends only</t>
   </si>
   <si>
     <t xml:space="preserve">Data day of the week</t>
@@ -332,6 +335,9 @@
   </si>
   <si>
     <t xml:space="preserve">Volumes de trafic par direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courbe de variation week-ends</t>
   </si>
 </sst>
 </file>
@@ -949,7 +955,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF66FFB2"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
@@ -967,7 +973,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart169.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart193.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1116,8 +1122,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="23339917"/>
-        <c:axId val="57558670"/>
+        <c:axId val="54952970"/>
+        <c:axId val="47417195"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1411,11 +1417,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="23339917"/>
-        <c:axId val="57558670"/>
+        <c:axId val="54952970"/>
+        <c:axId val="47417195"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23339917"/>
+        <c:axId val="54952970"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57558670"/>
+        <c:crossAx val="47417195"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1489,7 +1495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57558670"/>
+        <c:axId val="47417195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1571,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23339917"/>
+        <c:crossAx val="54952970"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,7 +1623,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart170.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart194.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3892,11 +3898,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="20803113"/>
-        <c:axId val="13847973"/>
+        <c:axId val="65419953"/>
+        <c:axId val="94039829"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20803113"/>
+        <c:axId val="65419953"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3924,7 +3930,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13847973"/>
+        <c:crossAx val="94039829"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3932,7 +3938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13847973"/>
+        <c:axId val="94039829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,7 +3975,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20803113"/>
+        <c:crossAx val="65419953"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4017,7 +4023,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart195.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4138,11 +4144,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84177128"/>
-        <c:axId val="84181364"/>
+        <c:axId val="18647356"/>
+        <c:axId val="70727778"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84177128"/>
+        <c:axId val="18647356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4176,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84181364"/>
+        <c:crossAx val="70727778"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4178,7 +4184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84181364"/>
+        <c:axId val="70727778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,7 +4221,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84177128"/>
+        <c:crossAx val="18647356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4263,7 +4269,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart196.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4434,6 +4440,615 @@
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart197.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Section</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="66ffb2"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$B$37:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:overlap val="0"/>
+        <c:axId val="88563355"/>
+        <c:axId val="50013069"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3333ff"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3333ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$C$37:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$D$37:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="88563355"/>
+        <c:axId val="50013069"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="88563355"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Selon l'heure de la journée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50013069"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50013069"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88563355"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -4566,6 +5181,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="360" y="13030560"/>
+        <a:ext cx="6903720" cy="2911320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7649,10 +8294,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8061,6 +8706,385 @@
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">SUM(D5:D28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <f aca="false">C37+D37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <f aca="false">C38+D38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <f aca="false">C39+D39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <f aca="false">C40+D40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <f aca="false">C41+D41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <f aca="false">C42+D42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <f aca="false">C43+D43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <f aca="false">C44+D44</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <f aca="false">C45+D45</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <f aca="false">C46+D46</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <f aca="false">C47+D47</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <f aca="false">C48+D48</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <f aca="false">C49+D49</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <f aca="false">C50+D50</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <f aca="false">C51+D51</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <f aca="false">C52+D52</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <f aca="false">C53+D53</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <f aca="false">C54+D54</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <f aca="false">C55+D55</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <f aca="false">C56+D56</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <f aca="false">C57+D57</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <f aca="false">C58+D58</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <f aca="false">C59+D59</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <f aca="false">C60+D60</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8090,7 +9114,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8103,7 +9127,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0</v>
@@ -8111,7 +9135,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0</v>
@@ -8119,7 +9143,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0</v>
@@ -8127,7 +9151,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0</v>
@@ -8135,7 +9159,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0</v>
@@ -8143,7 +9167,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>0</v>
@@ -8151,7 +9175,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
@@ -8224,7 +9248,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12" t="n">
         <f aca="false">Data_count!B13</f>
@@ -8238,7 +9262,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="n">
         <f aca="false">Data_count!B14</f>
@@ -8308,31 +9332,31 @@
         <v>20</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="27" t="e">
         <f aca="false">D11+E11</f>
@@ -8374,7 +9398,7 @@
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="33" t="e">
         <f aca="false">D12+E12</f>
@@ -8415,7 +9439,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8423,7 +9447,7 @@
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -8438,7 +9462,7 @@
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -8456,7 +9480,7 @@
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -8474,7 +9498,7 @@
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -8492,7 +9516,7 @@
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -8507,7 +9531,7 @@
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -8522,7 +9546,7 @@
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -8655,7 +9679,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12" t="n">
         <f aca="false">Data_count!B13</f>
@@ -8669,7 +9693,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="n">
         <f aca="false">Data_count!B14</f>
@@ -8686,7 +9710,7 @@
       <c r="A6" s="9"/>
       <c r="C6" s="13"/>
       <c r="G6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="7"/>
       <c r="N6" s="41"/>
@@ -8753,34 +9777,34 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="45"/>
       <c r="L13" s="49"/>
@@ -8789,7 +9813,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>0</v>
@@ -8827,7 +9851,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="52" t="n">
         <v>0</v>
@@ -8865,7 +9889,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="52" t="n">
         <v>0</v>
@@ -8903,7 +9927,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="52" t="n">
         <v>0</v>
@@ -8941,7 +9965,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="52" t="n">
         <v>0</v>
@@ -8979,7 +10003,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="52" t="n">
         <v>0</v>
@@ -9017,7 +10041,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="52" t="n">
         <v>0</v>
@@ -9055,7 +10079,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="52" t="n">
         <v>0</v>
@@ -9093,7 +10117,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="52" t="n">
         <v>0</v>
@@ -9131,7 +10155,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="52" t="n">
         <v>0</v>
@@ -9169,7 +10193,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="52" t="n">
         <v>0</v>
@@ -9207,7 +10231,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="52" t="n">
         <v>0</v>
@@ -9245,7 +10269,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="52" t="n">
         <v>0</v>
@@ -9283,7 +10307,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="52" t="n">
         <v>0</v>
@@ -9321,7 +10345,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="52" t="n">
         <v>0</v>
@@ -9359,7 +10383,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="52" t="n">
         <v>0</v>
@@ -9397,7 +10421,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="52" t="n">
         <v>0</v>
@@ -9435,7 +10459,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="52" t="n">
         <v>0</v>
@@ -9473,7 +10497,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="52" t="n">
         <v>0</v>
@@ -9511,7 +10535,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="52" t="n">
         <v>0</v>
@@ -9549,7 +10573,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="52" t="n">
         <v>0</v>
@@ -9587,7 +10611,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="52" t="n">
         <v>0</v>
@@ -9625,7 +10649,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="52" t="n">
         <v>0</v>
@@ -9663,7 +10687,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="52" t="n">
         <v>0</v>
@@ -9717,7 +10741,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -9735,7 +10759,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="52" t="n">
         <f aca="false">SUM(B21:B32)</f>
@@ -9780,7 +10804,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="52" t="n">
         <f aca="false">SUM(B20:B35)</f>
@@ -9825,7 +10849,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="52" t="n">
         <f aca="false">SUM(B20:B37)</f>
@@ -9870,7 +10894,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="52" t="n">
         <f aca="false">SUM(B14:B37)</f>
@@ -9947,7 +10971,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
@@ -9965,34 +10989,34 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I47" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47" s="59"/>
       <c r="L47" s="59"/>
@@ -10001,7 +11025,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B48" s="52" t="n">
         <v>0</v>
@@ -10039,7 +11063,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="52" t="n">
         <v>0</v>
@@ -10077,7 +11101,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" s="52" t="n">
         <v>0</v>
@@ -10115,7 +11139,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="52" t="n">
         <v>0</v>
@@ -10153,7 +11177,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="52" t="n">
         <v>0</v>
@@ -10191,7 +11215,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="52" t="n">
         <v>0</v>
@@ -10229,7 +11253,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="52" t="n">
         <v>0</v>
@@ -10267,7 +11291,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="52" t="n">
         <v>0</v>
@@ -10305,7 +11329,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="52" t="n">
         <v>0</v>
@@ -10343,7 +11367,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="52" t="n">
         <v>0</v>
@@ -10381,7 +11405,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="52" t="n">
         <v>0</v>
@@ -10419,7 +11443,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B59" s="52" t="n">
         <v>0</v>
@@ -10783,8 +11807,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O61" activeCellId="0" sqref="O61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N69" activeCellId="0" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10830,7 +11854,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="12" t="n">
         <f aca="false">Data_count!B13</f>
@@ -10844,7 +11868,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="12" t="n">
         <f aca="false">Data_count!B14</f>
@@ -10899,7 +11923,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -10927,12 +11951,17 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="61" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="61" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -5,22 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Data_year" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Data_hour" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Data_week" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CV_LV" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="AN_TE" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="AN_GR" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Data_class" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="CV_LV" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="AN_TE" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="AN_GR" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CAT" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11,CAT!$A$1:$K$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
   <si>
     <t xml:space="preserve">Section details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Period</t>
@@ -71,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direction 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arx</t>
   </si>
   <si>
     <t xml:space="preserve">Data day by day</t>
@@ -128,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dimanche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
   </si>
   <si>
     <t xml:space="preserve">Direction 1 :</t>
@@ -338,6 +345,9 @@
   </si>
   <si>
     <t xml:space="preserve">Courbe de variation week-ends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categorisation des vehicules MD</t>
   </si>
 </sst>
 </file>
@@ -617,7 +627,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -631,6 +641,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -798,10 +812,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -834,10 +844,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -847,18 +853,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -973,7 +967,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart193.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -989,7 +983,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$B$4</c:f>
+              <c:f>Data_hour!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1003,9 +997,7 @@
               <a:srgbClr val="66ffb2"/>
             </a:solidFill>
             <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1040,7 +1032,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$B$5:$B$28</c:f>
+              <c:f>Data_hour!$B$37:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1122,8 +1114,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="54952970"/>
-        <c:axId val="47417195"/>
+        <c:axId val="15523272"/>
+        <c:axId val="36727349"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1133,7 +1125,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$C$4</c:f>
+              <c:f>Data_hour!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1187,7 +1179,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$C$5:$C$28</c:f>
+              <c:f>Data_hour!$C$37:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1273,7 +1265,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$D$4</c:f>
+              <c:f>Data_hour!$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1284,13 +1276,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff3333"/>
+              <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln w="19080">
+            <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff3333"/>
+                <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -1299,15 +1290,12 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
@@ -1318,7 +1306,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1328,7 +1316,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$D$5:$D$28</c:f>
+              <c:f>Data_hour!$D$37:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1417,11 +1405,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="54952970"/>
-        <c:axId val="47417195"/>
+        <c:axId val="15523272"/>
+        <c:axId val="36727349"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54952970"/>
+        <c:axId val="15523272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1475,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47417195"/>
+        <c:crossAx val="36727349"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1483,623 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47417195"/>
+        <c:axId val="36727349"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15523272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Section</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="66ffb2"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$B$5:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:overlap val="0"/>
+        <c:axId val="30955963"/>
+        <c:axId val="65784525"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3333ff"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3333ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$C$5:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff3333"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="ff3333"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$D$5:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="30955963"/>
+        <c:axId val="65784525"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="30955963"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Selon l'heure de la journée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65784525"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65784525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +2175,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54952970"/>
+        <c:crossAx val="30955963"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1623,7 +2227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart194.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1669,6 +2273,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3898,17 +4503,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="65419953"/>
-        <c:axId val="94039829"/>
+        <c:axId val="46034304"/>
+        <c:axId val="23547937"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65419953"/>
+        <c:axId val="46034304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3930,7 +4535,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94039829"/>
+        <c:crossAx val="23547937"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3938,7 +4543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94039829"/>
+        <c:axId val="23547937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3953,7 +4558,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3975,7 +4580,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65419953"/>
+        <c:crossAx val="46034304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4023,7 +4628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart195.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4069,6 +4674,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4144,17 +4750,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18647356"/>
-        <c:axId val="70727778"/>
+        <c:axId val="96137235"/>
+        <c:axId val="80670581"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18647356"/>
+        <c:axId val="96137235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4176,7 +4782,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70727778"/>
+        <c:crossAx val="80670581"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4184,7 +4790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70727778"/>
+        <c:axId val="80670581"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +4805,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4221,7 +4827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18647356"/>
+        <c:crossAx val="96137235"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4269,7 +4875,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart196.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4326,6 +4932,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4346,6 +4953,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -4364,6 +4972,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4433,6 +5042,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4440,615 +5050,6 @@
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart197.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Section</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="66ffb2"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$B$37:$B$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="0"/>
-        <c:overlap val="0"/>
-        <c:axId val="88563355"/>
-        <c:axId val="50013069"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dir1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3333ff"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="3333ff"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$C$37:$C$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$D$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dir2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$D$37:$D$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="88563355"/>
-        <c:axId val="50013069"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="88563355"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Selon l'heure de la journée</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50013069"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50013069"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="8b8b8b"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88563355"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -5065,9 +5066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:colOff>583920</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5076,7 +5077,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2676600"/>
-        <a:ext cx="6903720" cy="2911320"/>
+        <a:ext cx="6903360" cy="2910960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5100,9 +5101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>538200</xdr:colOff>
+      <xdr:colOff>537840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5111,7 +5112,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="49320" y="1924200"/>
-        <a:ext cx="6776640" cy="3038400"/>
+        <a:ext cx="6776280" cy="3038040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5130,9 +5131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
+      <xdr:colOff>488520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5141,7 +5142,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="69120" y="5495760"/>
-        <a:ext cx="6707520" cy="3267360"/>
+        <a:ext cx="6707160" cy="3267000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5160,9 +5161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5171,7 +5172,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="197280" y="9239400"/>
-        <a:ext cx="5760720" cy="3238560"/>
+        <a:ext cx="5760360" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5190,9 +5191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5201,7 +5202,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="13030560"/>
-        <a:ext cx="6903720" cy="2911320"/>
+        <a:ext cx="6903360" cy="2910960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5219,13 +5220,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="119.13"/>
@@ -5240,77 +5241,96 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5335,2946 +5355,2946 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>43831</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>43832</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>43833</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>43834</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>43835</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>43836</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>43837</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>43838</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>43839</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>43840</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>43841</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>43842</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>43843</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>43844</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>43845</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>43846</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <v>43847</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>43848</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>43849</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>43850</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>43851</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>43852</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="5" t="n">
         <v>43853</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <v>43854</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="5" t="n">
         <v>43855</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="5" t="n">
         <v>43856</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <v>43857</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="5" t="n">
         <v>43858</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="5" t="n">
         <v>43859</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="5" t="n">
         <v>43860</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="5" t="n">
         <v>43861</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="5" t="n">
         <v>43862</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="5" t="n">
         <v>43863</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="5" t="n">
         <v>43864</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <v>43865</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="5" t="n">
         <v>43866</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="5" t="n">
         <v>43867</v>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="5" t="n">
         <v>43868</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="5" t="n">
         <v>43869</v>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="5" t="n">
         <v>43870</v>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="5" t="n">
         <v>43871</v>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="5" t="n">
         <v>43872</v>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="5" t="n">
         <v>43873</v>
       </c>
-      <c r="B46" s="5" t="n">
+      <c r="B46" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="5" t="n">
         <v>43874</v>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="5" t="n">
         <v>43875</v>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="5" t="n">
         <v>43876</v>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="5" t="n">
         <v>43877</v>
       </c>
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="5" t="n">
         <v>43878</v>
       </c>
-      <c r="B51" s="5" t="n">
+      <c r="B51" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="5" t="n">
         <v>43879</v>
       </c>
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="5" t="n">
         <v>43880</v>
       </c>
-      <c r="B53" s="5" t="n">
+      <c r="B53" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="5" t="n">
         <v>43881</v>
       </c>
-      <c r="B54" s="5" t="n">
+      <c r="B54" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="5" t="n">
         <v>43882</v>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="5" t="n">
         <v>43883</v>
       </c>
-      <c r="B56" s="5" t="n">
+      <c r="B56" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="5" t="n">
         <v>43884</v>
       </c>
-      <c r="B57" s="5" t="n">
+      <c r="B57" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="5" t="n">
         <v>43885</v>
       </c>
-      <c r="B58" s="5" t="n">
+      <c r="B58" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="5" t="n">
         <v>43886</v>
       </c>
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="5" t="n">
         <v>43887</v>
       </c>
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="5" t="n">
         <v>43888</v>
       </c>
-      <c r="B61" s="5" t="n">
+      <c r="B61" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="5" t="n">
         <v>43889</v>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="5" t="n">
         <v>43890</v>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="5" t="n">
         <v>43891</v>
       </c>
-      <c r="B64" s="5" t="n">
+      <c r="B64" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="5" t="n">
         <v>43892</v>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="5" t="n">
         <v>43893</v>
       </c>
-      <c r="B66" s="5" t="n">
+      <c r="B66" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="5" t="n">
         <v>43894</v>
       </c>
-      <c r="B67" s="5" t="n">
+      <c r="B67" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="5" t="n">
         <v>43895</v>
       </c>
-      <c r="B68" s="5" t="n">
+      <c r="B68" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="5" t="n">
         <v>43896</v>
       </c>
-      <c r="B69" s="5" t="n">
+      <c r="B69" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="5" t="n">
         <v>43897</v>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="5" t="n">
         <v>43898</v>
       </c>
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="5" t="n">
         <v>43899</v>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="5" t="n">
         <v>43900</v>
       </c>
-      <c r="B73" s="5" t="n">
+      <c r="B73" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="5" t="n">
         <v>43901</v>
       </c>
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="5" t="n">
         <v>43902</v>
       </c>
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="5" t="n">
         <v>43903</v>
       </c>
-      <c r="B76" s="5" t="n">
+      <c r="B76" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="5" t="n">
         <v>43904</v>
       </c>
-      <c r="B77" s="5" t="n">
+      <c r="B77" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="5" t="n">
         <v>43905</v>
       </c>
-      <c r="B78" s="5" t="n">
+      <c r="B78" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="5" t="n">
         <v>43906</v>
       </c>
-      <c r="B79" s="5" t="n">
+      <c r="B79" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="5" t="n">
         <v>43907</v>
       </c>
-      <c r="B80" s="5" t="n">
+      <c r="B80" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="5" t="n">
         <v>43908</v>
       </c>
-      <c r="B81" s="5" t="n">
+      <c r="B81" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="5" t="n">
         <v>43909</v>
       </c>
-      <c r="B82" s="5" t="n">
+      <c r="B82" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="5" t="n">
         <v>43910</v>
       </c>
-      <c r="B83" s="5" t="n">
+      <c r="B83" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="5" t="n">
         <v>43911</v>
       </c>
-      <c r="B84" s="5" t="n">
+      <c r="B84" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="5" t="n">
         <v>43912</v>
       </c>
-      <c r="B85" s="5" t="n">
+      <c r="B85" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="5" t="n">
         <v>43913</v>
       </c>
-      <c r="B86" s="5" t="n">
+      <c r="B86" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="5" t="n">
         <v>43914</v>
       </c>
-      <c r="B87" s="5" t="n">
+      <c r="B87" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="5" t="n">
         <v>43915</v>
       </c>
-      <c r="B88" s="5" t="n">
+      <c r="B88" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="5" t="n">
         <v>43916</v>
       </c>
-      <c r="B89" s="5" t="n">
+      <c r="B89" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="5" t="n">
         <v>43917</v>
       </c>
-      <c r="B90" s="5" t="n">
+      <c r="B90" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="5" t="n">
         <v>43918</v>
       </c>
-      <c r="B91" s="5" t="n">
+      <c r="B91" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="5" t="n">
         <v>43919</v>
       </c>
-      <c r="B92" s="5" t="n">
+      <c r="B92" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="5" t="n">
         <v>43920</v>
       </c>
-      <c r="B93" s="5" t="n">
+      <c r="B93" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="5" t="n">
         <v>43921</v>
       </c>
-      <c r="B94" s="5" t="n">
+      <c r="B94" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="5" t="n">
         <v>43922</v>
       </c>
-      <c r="B95" s="5" t="n">
+      <c r="B95" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="5" t="n">
         <v>43923</v>
       </c>
-      <c r="B96" s="5" t="n">
+      <c r="B96" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="5" t="n">
         <v>43924</v>
       </c>
-      <c r="B97" s="5" t="n">
+      <c r="B97" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="5" t="n">
         <v>43925</v>
       </c>
-      <c r="B98" s="5" t="n">
+      <c r="B98" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="5" t="n">
         <v>43926</v>
       </c>
-      <c r="B99" s="5" t="n">
+      <c r="B99" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="5" t="n">
         <v>43927</v>
       </c>
-      <c r="B100" s="5" t="n">
+      <c r="B100" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="5" t="n">
         <v>43928</v>
       </c>
-      <c r="B101" s="5" t="n">
+      <c r="B101" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="5" t="n">
         <v>43929</v>
       </c>
-      <c r="B102" s="5" t="n">
+      <c r="B102" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="5" t="n">
         <v>43930</v>
       </c>
-      <c r="B103" s="5" t="n">
+      <c r="B103" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="5" t="n">
         <v>43931</v>
       </c>
-      <c r="B104" s="5" t="n">
+      <c r="B104" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="5" t="n">
         <v>43932</v>
       </c>
-      <c r="B105" s="5" t="n">
+      <c r="B105" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="5" t="n">
         <v>43933</v>
       </c>
-      <c r="B106" s="5" t="n">
+      <c r="B106" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="5" t="n">
         <v>43934</v>
       </c>
-      <c r="B107" s="5" t="n">
+      <c r="B107" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="5" t="n">
         <v>43935</v>
       </c>
-      <c r="B108" s="5" t="n">
+      <c r="B108" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="5" t="n">
         <v>43936</v>
       </c>
-      <c r="B109" s="5" t="n">
+      <c r="B109" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="5" t="n">
         <v>43937</v>
       </c>
-      <c r="B110" s="5" t="n">
+      <c r="B110" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="5" t="n">
         <v>43938</v>
       </c>
-      <c r="B111" s="5" t="n">
+      <c r="B111" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="5" t="n">
         <v>43939</v>
       </c>
-      <c r="B112" s="5" t="n">
+      <c r="B112" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="5" t="n">
         <v>43940</v>
       </c>
-      <c r="B113" s="5" t="n">
+      <c r="B113" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="5" t="n">
         <v>43941</v>
       </c>
-      <c r="B114" s="5" t="n">
+      <c r="B114" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="5" t="n">
         <v>43942</v>
       </c>
-      <c r="B115" s="5" t="n">
+      <c r="B115" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="5" t="n">
         <v>43943</v>
       </c>
-      <c r="B116" s="5" t="n">
+      <c r="B116" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="5" t="n">
         <v>43944</v>
       </c>
-      <c r="B117" s="5" t="n">
+      <c r="B117" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="5" t="n">
         <v>43945</v>
       </c>
-      <c r="B118" s="5" t="n">
+      <c r="B118" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="5" t="n">
         <v>43946</v>
       </c>
-      <c r="B119" s="5" t="n">
+      <c r="B119" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="5" t="n">
         <v>43947</v>
       </c>
-      <c r="B120" s="5" t="n">
+      <c r="B120" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="5" t="n">
         <v>43948</v>
       </c>
-      <c r="B121" s="5" t="n">
+      <c r="B121" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="5" t="n">
         <v>43949</v>
       </c>
-      <c r="B122" s="5" t="n">
+      <c r="B122" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="5" t="n">
         <v>43950</v>
       </c>
-      <c r="B123" s="5" t="n">
+      <c r="B123" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="5" t="n">
         <v>43951</v>
       </c>
-      <c r="B124" s="5" t="n">
+      <c r="B124" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="5" t="n">
         <v>43952</v>
       </c>
-      <c r="B125" s="5" t="n">
+      <c r="B125" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="5" t="n">
         <v>43953</v>
       </c>
-      <c r="B126" s="5" t="n">
+      <c r="B126" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="5" t="n">
         <v>43954</v>
       </c>
-      <c r="B127" s="5" t="n">
+      <c r="B127" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="5" t="n">
         <v>43955</v>
       </c>
-      <c r="B128" s="5" t="n">
+      <c r="B128" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="5" t="n">
         <v>43956</v>
       </c>
-      <c r="B129" s="5" t="n">
+      <c r="B129" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
+      <c r="A130" s="5" t="n">
         <v>43957</v>
       </c>
-      <c r="B130" s="5" t="n">
+      <c r="B130" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
+      <c r="A131" s="5" t="n">
         <v>43958</v>
       </c>
-      <c r="B131" s="5" t="n">
+      <c r="B131" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
+      <c r="A132" s="5" t="n">
         <v>43959</v>
       </c>
-      <c r="B132" s="5" t="n">
+      <c r="B132" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
+      <c r="A133" s="5" t="n">
         <v>43960</v>
       </c>
-      <c r="B133" s="5" t="n">
+      <c r="B133" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
+      <c r="A134" s="5" t="n">
         <v>43961</v>
       </c>
-      <c r="B134" s="5" t="n">
+      <c r="B134" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
+      <c r="A135" s="5" t="n">
         <v>43962</v>
       </c>
-      <c r="B135" s="5" t="n">
+      <c r="B135" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="n">
+      <c r="A136" s="5" t="n">
         <v>43963</v>
       </c>
-      <c r="B136" s="5" t="n">
+      <c r="B136" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="n">
+      <c r="A137" s="5" t="n">
         <v>43964</v>
       </c>
-      <c r="B137" s="5" t="n">
+      <c r="B137" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="n">
+      <c r="A138" s="5" t="n">
         <v>43965</v>
       </c>
-      <c r="B138" s="5" t="n">
+      <c r="B138" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="n">
+      <c r="A139" s="5" t="n">
         <v>43966</v>
       </c>
-      <c r="B139" s="5" t="n">
+      <c r="B139" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="n">
+      <c r="A140" s="5" t="n">
         <v>43967</v>
       </c>
-      <c r="B140" s="5" t="n">
+      <c r="B140" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="n">
+      <c r="A141" s="5" t="n">
         <v>43968</v>
       </c>
-      <c r="B141" s="5" t="n">
+      <c r="B141" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="n">
+      <c r="A142" s="5" t="n">
         <v>43969</v>
       </c>
-      <c r="B142" s="5" t="n">
+      <c r="B142" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="n">
+      <c r="A143" s="5" t="n">
         <v>43970</v>
       </c>
-      <c r="B143" s="5" t="n">
+      <c r="B143" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="n">
+      <c r="A144" s="5" t="n">
         <v>43971</v>
       </c>
-      <c r="B144" s="5" t="n">
+      <c r="B144" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="n">
+      <c r="A145" s="5" t="n">
         <v>43972</v>
       </c>
-      <c r="B145" s="5" t="n">
+      <c r="B145" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="n">
+      <c r="A146" s="5" t="n">
         <v>43973</v>
       </c>
-      <c r="B146" s="5" t="n">
+      <c r="B146" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="n">
+      <c r="A147" s="5" t="n">
         <v>43974</v>
       </c>
-      <c r="B147" s="5" t="n">
+      <c r="B147" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="n">
+      <c r="A148" s="5" t="n">
         <v>43975</v>
       </c>
-      <c r="B148" s="5" t="n">
+      <c r="B148" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="n">
+      <c r="A149" s="5" t="n">
         <v>43976</v>
       </c>
-      <c r="B149" s="5" t="n">
+      <c r="B149" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="n">
+      <c r="A150" s="5" t="n">
         <v>43977</v>
       </c>
-      <c r="B150" s="5" t="n">
+      <c r="B150" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="n">
+      <c r="A151" s="5" t="n">
         <v>43978</v>
       </c>
-      <c r="B151" s="5" t="n">
+      <c r="B151" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="n">
+      <c r="A152" s="5" t="n">
         <v>43979</v>
       </c>
-      <c r="B152" s="5" t="n">
+      <c r="B152" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="n">
+      <c r="A153" s="5" t="n">
         <v>43980</v>
       </c>
-      <c r="B153" s="5" t="n">
+      <c r="B153" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="n">
+      <c r="A154" s="5" t="n">
         <v>43981</v>
       </c>
-      <c r="B154" s="5" t="n">
+      <c r="B154" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="n">
+      <c r="A155" s="5" t="n">
         <v>43982</v>
       </c>
-      <c r="B155" s="5" t="n">
+      <c r="B155" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="n">
+      <c r="A156" s="5" t="n">
         <v>43983</v>
       </c>
-      <c r="B156" s="5" t="n">
+      <c r="B156" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="n">
+      <c r="A157" s="5" t="n">
         <v>43984</v>
       </c>
-      <c r="B157" s="5" t="n">
+      <c r="B157" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="n">
+      <c r="A158" s="5" t="n">
         <v>43985</v>
       </c>
-      <c r="B158" s="5" t="n">
+      <c r="B158" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="n">
+      <c r="A159" s="5" t="n">
         <v>43986</v>
       </c>
-      <c r="B159" s="5" t="n">
+      <c r="B159" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="n">
+      <c r="A160" s="5" t="n">
         <v>43987</v>
       </c>
-      <c r="B160" s="5" t="n">
+      <c r="B160" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="n">
+      <c r="A161" s="5" t="n">
         <v>43988</v>
       </c>
-      <c r="B161" s="5" t="n">
+      <c r="B161" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="n">
+      <c r="A162" s="5" t="n">
         <v>43989</v>
       </c>
-      <c r="B162" s="5" t="n">
+      <c r="B162" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="n">
+      <c r="A163" s="5" t="n">
         <v>43990</v>
       </c>
-      <c r="B163" s="5" t="n">
+      <c r="B163" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="n">
+      <c r="A164" s="5" t="n">
         <v>43991</v>
       </c>
-      <c r="B164" s="5" t="n">
+      <c r="B164" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="n">
+      <c r="A165" s="5" t="n">
         <v>43992</v>
       </c>
-      <c r="B165" s="5" t="n">
+      <c r="B165" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="n">
+      <c r="A166" s="5" t="n">
         <v>43993</v>
       </c>
-      <c r="B166" s="5" t="n">
+      <c r="B166" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="n">
+      <c r="A167" s="5" t="n">
         <v>43994</v>
       </c>
-      <c r="B167" s="5" t="n">
+      <c r="B167" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="n">
+      <c r="A168" s="5" t="n">
         <v>43995</v>
       </c>
-      <c r="B168" s="5" t="n">
+      <c r="B168" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="n">
+      <c r="A169" s="5" t="n">
         <v>43996</v>
       </c>
-      <c r="B169" s="5" t="n">
+      <c r="B169" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="n">
+      <c r="A170" s="5" t="n">
         <v>43997</v>
       </c>
-      <c r="B170" s="5" t="n">
+      <c r="B170" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="n">
+      <c r="A171" s="5" t="n">
         <v>43998</v>
       </c>
-      <c r="B171" s="5" t="n">
+      <c r="B171" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="n">
+      <c r="A172" s="5" t="n">
         <v>43999</v>
       </c>
-      <c r="B172" s="5" t="n">
+      <c r="B172" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="n">
+      <c r="A173" s="5" t="n">
         <v>44000</v>
       </c>
-      <c r="B173" s="5" t="n">
+      <c r="B173" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="n">
+      <c r="A174" s="5" t="n">
         <v>44001</v>
       </c>
-      <c r="B174" s="5" t="n">
+      <c r="B174" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="n">
+      <c r="A175" s="5" t="n">
         <v>44002</v>
       </c>
-      <c r="B175" s="5" t="n">
+      <c r="B175" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="n">
+      <c r="A176" s="5" t="n">
         <v>44003</v>
       </c>
-      <c r="B176" s="5" t="n">
+      <c r="B176" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="n">
+      <c r="A177" s="5" t="n">
         <v>44004</v>
       </c>
-      <c r="B177" s="5" t="n">
+      <c r="B177" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="n">
+      <c r="A178" s="5" t="n">
         <v>44005</v>
       </c>
-      <c r="B178" s="5" t="n">
+      <c r="B178" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="n">
+      <c r="A179" s="5" t="n">
         <v>44006</v>
       </c>
-      <c r="B179" s="5" t="n">
+      <c r="B179" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="n">
+      <c r="A180" s="5" t="n">
         <v>44007</v>
       </c>
-      <c r="B180" s="5" t="n">
+      <c r="B180" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="n">
+      <c r="A181" s="5" t="n">
         <v>44008</v>
       </c>
-      <c r="B181" s="5" t="n">
+      <c r="B181" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="n">
+      <c r="A182" s="5" t="n">
         <v>44009</v>
       </c>
-      <c r="B182" s="5" t="n">
+      <c r="B182" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="n">
+      <c r="A183" s="5" t="n">
         <v>44010</v>
       </c>
-      <c r="B183" s="5" t="n">
+      <c r="B183" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="n">
+      <c r="A184" s="5" t="n">
         <v>44011</v>
       </c>
-      <c r="B184" s="5" t="n">
+      <c r="B184" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="n">
+      <c r="A185" s="5" t="n">
         <v>44012</v>
       </c>
-      <c r="B185" s="5" t="n">
+      <c r="B185" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="n">
+      <c r="A186" s="5" t="n">
         <v>44013</v>
       </c>
-      <c r="B186" s="5" t="n">
+      <c r="B186" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="4" t="n">
+      <c r="A187" s="5" t="n">
         <v>44014</v>
       </c>
-      <c r="B187" s="5" t="n">
+      <c r="B187" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="n">
+      <c r="A188" s="5" t="n">
         <v>44015</v>
       </c>
-      <c r="B188" s="5" t="n">
+      <c r="B188" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="n">
+      <c r="A189" s="5" t="n">
         <v>44016</v>
       </c>
-      <c r="B189" s="5" t="n">
+      <c r="B189" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="n">
+      <c r="A190" s="5" t="n">
         <v>44017</v>
       </c>
-      <c r="B190" s="5" t="n">
+      <c r="B190" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="n">
+      <c r="A191" s="5" t="n">
         <v>44018</v>
       </c>
-      <c r="B191" s="5" t="n">
+      <c r="B191" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="4" t="n">
+      <c r="A192" s="5" t="n">
         <v>44019</v>
       </c>
-      <c r="B192" s="5" t="n">
+      <c r="B192" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="4" t="n">
+      <c r="A193" s="5" t="n">
         <v>44020</v>
       </c>
-      <c r="B193" s="5" t="n">
+      <c r="B193" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="4" t="n">
+      <c r="A194" s="5" t="n">
         <v>44021</v>
       </c>
-      <c r="B194" s="5" t="n">
+      <c r="B194" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="4" t="n">
+      <c r="A195" s="5" t="n">
         <v>44022</v>
       </c>
-      <c r="B195" s="5" t="n">
+      <c r="B195" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="4" t="n">
+      <c r="A196" s="5" t="n">
         <v>44023</v>
       </c>
-      <c r="B196" s="5" t="n">
+      <c r="B196" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="4" t="n">
+      <c r="A197" s="5" t="n">
         <v>44024</v>
       </c>
-      <c r="B197" s="5" t="n">
+      <c r="B197" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="4" t="n">
+      <c r="A198" s="5" t="n">
         <v>44025</v>
       </c>
-      <c r="B198" s="5" t="n">
+      <c r="B198" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="n">
+      <c r="A199" s="5" t="n">
         <v>44026</v>
       </c>
-      <c r="B199" s="5" t="n">
+      <c r="B199" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="n">
+      <c r="A200" s="5" t="n">
         <v>44027</v>
       </c>
-      <c r="B200" s="5" t="n">
+      <c r="B200" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="n">
+      <c r="A201" s="5" t="n">
         <v>44028</v>
       </c>
-      <c r="B201" s="5" t="n">
+      <c r="B201" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="n">
+      <c r="A202" s="5" t="n">
         <v>44029</v>
       </c>
-      <c r="B202" s="5" t="n">
+      <c r="B202" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="n">
+      <c r="A203" s="5" t="n">
         <v>44030</v>
       </c>
-      <c r="B203" s="5" t="n">
+      <c r="B203" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="n">
+      <c r="A204" s="5" t="n">
         <v>44031</v>
       </c>
-      <c r="B204" s="5" t="n">
+      <c r="B204" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="n">
+      <c r="A205" s="5" t="n">
         <v>44032</v>
       </c>
-      <c r="B205" s="5" t="n">
+      <c r="B205" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="n">
+      <c r="A206" s="5" t="n">
         <v>44033</v>
       </c>
-      <c r="B206" s="5" t="n">
+      <c r="B206" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="4" t="n">
+      <c r="A207" s="5" t="n">
         <v>44034</v>
       </c>
-      <c r="B207" s="5" t="n">
+      <c r="B207" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="n">
+      <c r="A208" s="5" t="n">
         <v>44035</v>
       </c>
-      <c r="B208" s="5" t="n">
+      <c r="B208" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="n">
+      <c r="A209" s="5" t="n">
         <v>44036</v>
       </c>
-      <c r="B209" s="5" t="n">
+      <c r="B209" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="n">
+      <c r="A210" s="5" t="n">
         <v>44037</v>
       </c>
-      <c r="B210" s="5" t="n">
+      <c r="B210" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="4" t="n">
+      <c r="A211" s="5" t="n">
         <v>44038</v>
       </c>
-      <c r="B211" s="5" t="n">
+      <c r="B211" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="4" t="n">
+      <c r="A212" s="5" t="n">
         <v>44039</v>
       </c>
-      <c r="B212" s="5" t="n">
+      <c r="B212" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="4" t="n">
+      <c r="A213" s="5" t="n">
         <v>44040</v>
       </c>
-      <c r="B213" s="5" t="n">
+      <c r="B213" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="4" t="n">
+      <c r="A214" s="5" t="n">
         <v>44041</v>
       </c>
-      <c r="B214" s="5" t="n">
+      <c r="B214" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="4" t="n">
+      <c r="A215" s="5" t="n">
         <v>44042</v>
       </c>
-      <c r="B215" s="5" t="n">
+      <c r="B215" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="4" t="n">
+      <c r="A216" s="5" t="n">
         <v>44043</v>
       </c>
-      <c r="B216" s="5" t="n">
+      <c r="B216" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="4" t="n">
+      <c r="A217" s="5" t="n">
         <v>44044</v>
       </c>
-      <c r="B217" s="5" t="n">
+      <c r="B217" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="4" t="n">
+      <c r="A218" s="5" t="n">
         <v>44045</v>
       </c>
-      <c r="B218" s="5" t="n">
+      <c r="B218" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="4" t="n">
+      <c r="A219" s="5" t="n">
         <v>44046</v>
       </c>
-      <c r="B219" s="5" t="n">
+      <c r="B219" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="4" t="n">
+      <c r="A220" s="5" t="n">
         <v>44047</v>
       </c>
-      <c r="B220" s="5" t="n">
+      <c r="B220" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="4" t="n">
+      <c r="A221" s="5" t="n">
         <v>44048</v>
       </c>
-      <c r="B221" s="5" t="n">
+      <c r="B221" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="4" t="n">
+      <c r="A222" s="5" t="n">
         <v>44049</v>
       </c>
-      <c r="B222" s="5" t="n">
+      <c r="B222" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="4" t="n">
+      <c r="A223" s="5" t="n">
         <v>44050</v>
       </c>
-      <c r="B223" s="5" t="n">
+      <c r="B223" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="4" t="n">
+      <c r="A224" s="5" t="n">
         <v>44051</v>
       </c>
-      <c r="B224" s="5" t="n">
+      <c r="B224" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="4" t="n">
+      <c r="A225" s="5" t="n">
         <v>44052</v>
       </c>
-      <c r="B225" s="5" t="n">
+      <c r="B225" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="4" t="n">
+      <c r="A226" s="5" t="n">
         <v>44053</v>
       </c>
-      <c r="B226" s="5" t="n">
+      <c r="B226" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="4" t="n">
+      <c r="A227" s="5" t="n">
         <v>44054</v>
       </c>
-      <c r="B227" s="5" t="n">
+      <c r="B227" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="4" t="n">
+      <c r="A228" s="5" t="n">
         <v>44055</v>
       </c>
-      <c r="B228" s="5" t="n">
+      <c r="B228" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="4" t="n">
+      <c r="A229" s="5" t="n">
         <v>44056</v>
       </c>
-      <c r="B229" s="5" t="n">
+      <c r="B229" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="4" t="n">
+      <c r="A230" s="5" t="n">
         <v>44057</v>
       </c>
-      <c r="B230" s="5" t="n">
+      <c r="B230" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="4" t="n">
+      <c r="A231" s="5" t="n">
         <v>44058</v>
       </c>
-      <c r="B231" s="5" t="n">
+      <c r="B231" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="4" t="n">
+      <c r="A232" s="5" t="n">
         <v>44059</v>
       </c>
-      <c r="B232" s="5" t="n">
+      <c r="B232" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="4" t="n">
+      <c r="A233" s="5" t="n">
         <v>44060</v>
       </c>
-      <c r="B233" s="5" t="n">
+      <c r="B233" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="4" t="n">
+      <c r="A234" s="5" t="n">
         <v>44061</v>
       </c>
-      <c r="B234" s="5" t="n">
+      <c r="B234" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="4" t="n">
+      <c r="A235" s="5" t="n">
         <v>44062</v>
       </c>
-      <c r="B235" s="5" t="n">
+      <c r="B235" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="4" t="n">
+      <c r="A236" s="5" t="n">
         <v>44063</v>
       </c>
-      <c r="B236" s="5" t="n">
+      <c r="B236" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="4" t="n">
+      <c r="A237" s="5" t="n">
         <v>44064</v>
       </c>
-      <c r="B237" s="5" t="n">
+      <c r="B237" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="4" t="n">
+      <c r="A238" s="5" t="n">
         <v>44065</v>
       </c>
-      <c r="B238" s="5" t="n">
+      <c r="B238" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="4" t="n">
+      <c r="A239" s="5" t="n">
         <v>44066</v>
       </c>
-      <c r="B239" s="5" t="n">
+      <c r="B239" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="4" t="n">
+      <c r="A240" s="5" t="n">
         <v>44067</v>
       </c>
-      <c r="B240" s="5" t="n">
+      <c r="B240" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="4" t="n">
+      <c r="A241" s="5" t="n">
         <v>44068</v>
       </c>
-      <c r="B241" s="5" t="n">
+      <c r="B241" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="4" t="n">
+      <c r="A242" s="5" t="n">
         <v>44069</v>
       </c>
-      <c r="B242" s="5" t="n">
+      <c r="B242" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="4" t="n">
+      <c r="A243" s="5" t="n">
         <v>44070</v>
       </c>
-      <c r="B243" s="5" t="n">
+      <c r="B243" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="4" t="n">
+      <c r="A244" s="5" t="n">
         <v>44071</v>
       </c>
-      <c r="B244" s="5" t="n">
+      <c r="B244" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="4" t="n">
+      <c r="A245" s="5" t="n">
         <v>44072</v>
       </c>
-      <c r="B245" s="5" t="n">
+      <c r="B245" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="4" t="n">
+      <c r="A246" s="5" t="n">
         <v>44073</v>
       </c>
-      <c r="B246" s="5" t="n">
+      <c r="B246" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="4" t="n">
+      <c r="A247" s="5" t="n">
         <v>44074</v>
       </c>
-      <c r="B247" s="5" t="n">
+      <c r="B247" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="4" t="n">
+      <c r="A248" s="5" t="n">
         <v>44075</v>
       </c>
-      <c r="B248" s="5" t="n">
+      <c r="B248" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="4" t="n">
+      <c r="A249" s="5" t="n">
         <v>44076</v>
       </c>
-      <c r="B249" s="5" t="n">
+      <c r="B249" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="4" t="n">
+      <c r="A250" s="5" t="n">
         <v>44077</v>
       </c>
-      <c r="B250" s="5" t="n">
+      <c r="B250" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="4" t="n">
+      <c r="A251" s="5" t="n">
         <v>44078</v>
       </c>
-      <c r="B251" s="5" t="n">
+      <c r="B251" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="4" t="n">
+      <c r="A252" s="5" t="n">
         <v>44079</v>
       </c>
-      <c r="B252" s="5" t="n">
+      <c r="B252" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="4" t="n">
+      <c r="A253" s="5" t="n">
         <v>44080</v>
       </c>
-      <c r="B253" s="5" t="n">
+      <c r="B253" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="4" t="n">
+      <c r="A254" s="5" t="n">
         <v>44081</v>
       </c>
-      <c r="B254" s="5" t="n">
+      <c r="B254" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="4" t="n">
+      <c r="A255" s="5" t="n">
         <v>44082</v>
       </c>
-      <c r="B255" s="5" t="n">
+      <c r="B255" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="4" t="n">
+      <c r="A256" s="5" t="n">
         <v>44083</v>
       </c>
-      <c r="B256" s="5" t="n">
+      <c r="B256" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="4" t="n">
+      <c r="A257" s="5" t="n">
         <v>44084</v>
       </c>
-      <c r="B257" s="5" t="n">
+      <c r="B257" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="4" t="n">
+      <c r="A258" s="5" t="n">
         <v>44085</v>
       </c>
-      <c r="B258" s="5" t="n">
+      <c r="B258" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="4" t="n">
+      <c r="A259" s="5" t="n">
         <v>44086</v>
       </c>
-      <c r="B259" s="5" t="n">
+      <c r="B259" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="4" t="n">
+      <c r="A260" s="5" t="n">
         <v>44087</v>
       </c>
-      <c r="B260" s="5" t="n">
+      <c r="B260" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="4" t="n">
+      <c r="A261" s="5" t="n">
         <v>44088</v>
       </c>
-      <c r="B261" s="5" t="n">
+      <c r="B261" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="4" t="n">
+      <c r="A262" s="5" t="n">
         <v>44089</v>
       </c>
-      <c r="B262" s="5" t="n">
+      <c r="B262" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="4" t="n">
+      <c r="A263" s="5" t="n">
         <v>44090</v>
       </c>
-      <c r="B263" s="5" t="n">
+      <c r="B263" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="4" t="n">
+      <c r="A264" s="5" t="n">
         <v>44091</v>
       </c>
-      <c r="B264" s="5" t="n">
+      <c r="B264" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="4" t="n">
+      <c r="A265" s="5" t="n">
         <v>44092</v>
       </c>
-      <c r="B265" s="5" t="n">
+      <c r="B265" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="4" t="n">
+      <c r="A266" s="5" t="n">
         <v>44093</v>
       </c>
-      <c r="B266" s="5" t="n">
+      <c r="B266" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="4" t="n">
+      <c r="A267" s="5" t="n">
         <v>44094</v>
       </c>
-      <c r="B267" s="5" t="n">
+      <c r="B267" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="4" t="n">
+      <c r="A268" s="5" t="n">
         <v>44095</v>
       </c>
-      <c r="B268" s="5" t="n">
+      <c r="B268" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="4" t="n">
+      <c r="A269" s="5" t="n">
         <v>44096</v>
       </c>
-      <c r="B269" s="5" t="n">
+      <c r="B269" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="4" t="n">
+      <c r="A270" s="5" t="n">
         <v>44097</v>
       </c>
-      <c r="B270" s="5" t="n">
+      <c r="B270" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="4" t="n">
+      <c r="A271" s="5" t="n">
         <v>44098</v>
       </c>
-      <c r="B271" s="5" t="n">
+      <c r="B271" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="4" t="n">
+      <c r="A272" s="5" t="n">
         <v>44099</v>
       </c>
-      <c r="B272" s="5" t="n">
+      <c r="B272" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="4" t="n">
+      <c r="A273" s="5" t="n">
         <v>44100</v>
       </c>
-      <c r="B273" s="5" t="n">
+      <c r="B273" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="4" t="n">
+      <c r="A274" s="5" t="n">
         <v>44101</v>
       </c>
-      <c r="B274" s="5" t="n">
+      <c r="B274" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="4" t="n">
+      <c r="A275" s="5" t="n">
         <v>44102</v>
       </c>
-      <c r="B275" s="5" t="n">
+      <c r="B275" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="4" t="n">
+      <c r="A276" s="5" t="n">
         <v>44103</v>
       </c>
-      <c r="B276" s="5" t="n">
+      <c r="B276" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="4" t="n">
+      <c r="A277" s="5" t="n">
         <v>44104</v>
       </c>
-      <c r="B277" s="5" t="n">
+      <c r="B277" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="4" t="n">
+      <c r="A278" s="5" t="n">
         <v>44105</v>
       </c>
-      <c r="B278" s="5" t="n">
+      <c r="B278" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="4" t="n">
+      <c r="A279" s="5" t="n">
         <v>44106</v>
       </c>
-      <c r="B279" s="5" t="n">
+      <c r="B279" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="4" t="n">
+      <c r="A280" s="5" t="n">
         <v>44107</v>
       </c>
-      <c r="B280" s="5" t="n">
+      <c r="B280" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="4" t="n">
+      <c r="A281" s="5" t="n">
         <v>44108</v>
       </c>
-      <c r="B281" s="5" t="n">
+      <c r="B281" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="4" t="n">
+      <c r="A282" s="5" t="n">
         <v>44109</v>
       </c>
-      <c r="B282" s="5" t="n">
+      <c r="B282" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="4" t="n">
+      <c r="A283" s="5" t="n">
         <v>44110</v>
       </c>
-      <c r="B283" s="5" t="n">
+      <c r="B283" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="4" t="n">
+      <c r="A284" s="5" t="n">
         <v>44111</v>
       </c>
-      <c r="B284" s="5" t="n">
+      <c r="B284" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="4" t="n">
+      <c r="A285" s="5" t="n">
         <v>44112</v>
       </c>
-      <c r="B285" s="5" t="n">
+      <c r="B285" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="4" t="n">
+      <c r="A286" s="5" t="n">
         <v>44113</v>
       </c>
-      <c r="B286" s="5" t="n">
+      <c r="B286" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="4" t="n">
+      <c r="A287" s="5" t="n">
         <v>44114</v>
       </c>
-      <c r="B287" s="5" t="n">
+      <c r="B287" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="4" t="n">
+      <c r="A288" s="5" t="n">
         <v>44115</v>
       </c>
-      <c r="B288" s="5" t="n">
+      <c r="B288" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="4" t="n">
+      <c r="A289" s="5" t="n">
         <v>44116</v>
       </c>
-      <c r="B289" s="5" t="n">
+      <c r="B289" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="4" t="n">
+      <c r="A290" s="5" t="n">
         <v>44117</v>
       </c>
-      <c r="B290" s="5" t="n">
+      <c r="B290" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="4" t="n">
+      <c r="A291" s="5" t="n">
         <v>44118</v>
       </c>
-      <c r="B291" s="5" t="n">
+      <c r="B291" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="4" t="n">
+      <c r="A292" s="5" t="n">
         <v>44119</v>
       </c>
-      <c r="B292" s="5" t="n">
+      <c r="B292" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="4" t="n">
+      <c r="A293" s="5" t="n">
         <v>44120</v>
       </c>
-      <c r="B293" s="5" t="n">
+      <c r="B293" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="4" t="n">
+      <c r="A294" s="5" t="n">
         <v>44121</v>
       </c>
-      <c r="B294" s="5" t="n">
+      <c r="B294" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="4" t="n">
+      <c r="A295" s="5" t="n">
         <v>44122</v>
       </c>
-      <c r="B295" s="5" t="n">
+      <c r="B295" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="4" t="n">
+      <c r="A296" s="5" t="n">
         <v>44123</v>
       </c>
-      <c r="B296" s="5" t="n">
+      <c r="B296" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="4" t="n">
+      <c r="A297" s="5" t="n">
         <v>44124</v>
       </c>
-      <c r="B297" s="5" t="n">
+      <c r="B297" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="4" t="n">
+      <c r="A298" s="5" t="n">
         <v>44125</v>
       </c>
-      <c r="B298" s="5" t="n">
+      <c r="B298" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="4" t="n">
+      <c r="A299" s="5" t="n">
         <v>44126</v>
       </c>
-      <c r="B299" s="5" t="n">
+      <c r="B299" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="4" t="n">
+      <c r="A300" s="5" t="n">
         <v>44127</v>
       </c>
-      <c r="B300" s="5" t="n">
+      <c r="B300" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="4" t="n">
+      <c r="A301" s="5" t="n">
         <v>44128</v>
       </c>
-      <c r="B301" s="5" t="n">
+      <c r="B301" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="4" t="n">
+      <c r="A302" s="5" t="n">
         <v>44129</v>
       </c>
-      <c r="B302" s="5" t="n">
+      <c r="B302" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="4" t="n">
+      <c r="A303" s="5" t="n">
         <v>44130</v>
       </c>
-      <c r="B303" s="5" t="n">
+      <c r="B303" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="4" t="n">
+      <c r="A304" s="5" t="n">
         <v>44131</v>
       </c>
-      <c r="B304" s="5" t="n">
+      <c r="B304" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="4" t="n">
+      <c r="A305" s="5" t="n">
         <v>44132</v>
       </c>
-      <c r="B305" s="5" t="n">
+      <c r="B305" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="4" t="n">
+      <c r="A306" s="5" t="n">
         <v>44133</v>
       </c>
-      <c r="B306" s="5" t="n">
+      <c r="B306" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="4" t="n">
+      <c r="A307" s="5" t="n">
         <v>44134</v>
       </c>
-      <c r="B307" s="5" t="n">
+      <c r="B307" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="4" t="n">
+      <c r="A308" s="5" t="n">
         <v>44135</v>
       </c>
-      <c r="B308" s="5" t="n">
+      <c r="B308" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="4" t="n">
+      <c r="A309" s="5" t="n">
         <v>44136</v>
       </c>
-      <c r="B309" s="5" t="n">
+      <c r="B309" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="4" t="n">
+      <c r="A310" s="5" t="n">
         <v>44137</v>
       </c>
-      <c r="B310" s="5" t="n">
+      <c r="B310" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="4" t="n">
+      <c r="A311" s="5" t="n">
         <v>44138</v>
       </c>
-      <c r="B311" s="5" t="n">
+      <c r="B311" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="4" t="n">
+      <c r="A312" s="5" t="n">
         <v>44139</v>
       </c>
-      <c r="B312" s="5" t="n">
+      <c r="B312" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="4" t="n">
+      <c r="A313" s="5" t="n">
         <v>44140</v>
       </c>
-      <c r="B313" s="5" t="n">
+      <c r="B313" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="4" t="n">
+      <c r="A314" s="5" t="n">
         <v>44141</v>
       </c>
-      <c r="B314" s="5" t="n">
+      <c r="B314" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="4" t="n">
+      <c r="A315" s="5" t="n">
         <v>44142</v>
       </c>
-      <c r="B315" s="5" t="n">
+      <c r="B315" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="4" t="n">
+      <c r="A316" s="5" t="n">
         <v>44143</v>
       </c>
-      <c r="B316" s="5" t="n">
+      <c r="B316" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="4" t="n">
+      <c r="A317" s="5" t="n">
         <v>44144</v>
       </c>
-      <c r="B317" s="5" t="n">
+      <c r="B317" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="4" t="n">
+      <c r="A318" s="5" t="n">
         <v>44145</v>
       </c>
-      <c r="B318" s="5" t="n">
+      <c r="B318" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="4" t="n">
+      <c r="A319" s="5" t="n">
         <v>44146</v>
       </c>
-      <c r="B319" s="5" t="n">
+      <c r="B319" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="4" t="n">
+      <c r="A320" s="5" t="n">
         <v>44147</v>
       </c>
-      <c r="B320" s="5" t="n">
+      <c r="B320" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="4" t="n">
+      <c r="A321" s="5" t="n">
         <v>44148</v>
       </c>
-      <c r="B321" s="5" t="n">
+      <c r="B321" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="4" t="n">
+      <c r="A322" s="5" t="n">
         <v>44149</v>
       </c>
-      <c r="B322" s="5" t="n">
+      <c r="B322" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="4" t="n">
+      <c r="A323" s="5" t="n">
         <v>44150</v>
       </c>
-      <c r="B323" s="5" t="n">
+      <c r="B323" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="4" t="n">
+      <c r="A324" s="5" t="n">
         <v>44151</v>
       </c>
-      <c r="B324" s="5" t="n">
+      <c r="B324" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="4" t="n">
+      <c r="A325" s="5" t="n">
         <v>44152</v>
       </c>
-      <c r="B325" s="5" t="n">
+      <c r="B325" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="4" t="n">
+      <c r="A326" s="5" t="n">
         <v>44153</v>
       </c>
-      <c r="B326" s="5" t="n">
+      <c r="B326" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="4" t="n">
+      <c r="A327" s="5" t="n">
         <v>44154</v>
       </c>
-      <c r="B327" s="5" t="n">
+      <c r="B327" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="4" t="n">
+      <c r="A328" s="5" t="n">
         <v>44155</v>
       </c>
-      <c r="B328" s="5" t="n">
+      <c r="B328" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="4" t="n">
+      <c r="A329" s="5" t="n">
         <v>44156</v>
       </c>
-      <c r="B329" s="5" t="n">
+      <c r="B329" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="4" t="n">
+      <c r="A330" s="5" t="n">
         <v>44157</v>
       </c>
-      <c r="B330" s="5" t="n">
+      <c r="B330" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="4" t="n">
+      <c r="A331" s="5" t="n">
         <v>44158</v>
       </c>
-      <c r="B331" s="5" t="n">
+      <c r="B331" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="4" t="n">
+      <c r="A332" s="5" t="n">
         <v>44159</v>
       </c>
-      <c r="B332" s="5" t="n">
+      <c r="B332" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="4" t="n">
+      <c r="A333" s="5" t="n">
         <v>44160</v>
       </c>
-      <c r="B333" s="5" t="n">
+      <c r="B333" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="4" t="n">
+      <c r="A334" s="5" t="n">
         <v>44161</v>
       </c>
-      <c r="B334" s="5" t="n">
+      <c r="B334" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="4" t="n">
+      <c r="A335" s="5" t="n">
         <v>44162</v>
       </c>
-      <c r="B335" s="5" t="n">
+      <c r="B335" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="4" t="n">
+      <c r="A336" s="5" t="n">
         <v>44163</v>
       </c>
-      <c r="B336" s="5" t="n">
+      <c r="B336" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="4" t="n">
+      <c r="A337" s="5" t="n">
         <v>44164</v>
       </c>
-      <c r="B337" s="5" t="n">
+      <c r="B337" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="4" t="n">
+      <c r="A338" s="5" t="n">
         <v>44165</v>
       </c>
-      <c r="B338" s="5" t="n">
+      <c r="B338" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="4" t="n">
+      <c r="A339" s="5" t="n">
         <v>44166</v>
       </c>
-      <c r="B339" s="5" t="n">
+      <c r="B339" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="4" t="n">
+      <c r="A340" s="5" t="n">
         <v>44167</v>
       </c>
-      <c r="B340" s="5" t="n">
+      <c r="B340" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="4" t="n">
+      <c r="A341" s="5" t="n">
         <v>44168</v>
       </c>
-      <c r="B341" s="5" t="n">
+      <c r="B341" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="4" t="n">
+      <c r="A342" s="5" t="n">
         <v>44169</v>
       </c>
-      <c r="B342" s="5" t="n">
+      <c r="B342" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="4" t="n">
+      <c r="A343" s="5" t="n">
         <v>44170</v>
       </c>
-      <c r="B343" s="5" t="n">
+      <c r="B343" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="4" t="n">
+      <c r="A344" s="5" t="n">
         <v>44171</v>
       </c>
-      <c r="B344" s="5" t="n">
+      <c r="B344" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="4" t="n">
+      <c r="A345" s="5" t="n">
         <v>44172</v>
       </c>
-      <c r="B345" s="5" t="n">
+      <c r="B345" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="4" t="n">
+      <c r="A346" s="5" t="n">
         <v>44173</v>
       </c>
-      <c r="B346" s="5" t="n">
+      <c r="B346" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="4" t="n">
+      <c r="A347" s="5" t="n">
         <v>44174</v>
       </c>
-      <c r="B347" s="5" t="n">
+      <c r="B347" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="4" t="n">
+      <c r="A348" s="5" t="n">
         <v>44175</v>
       </c>
-      <c r="B348" s="5" t="n">
+      <c r="B348" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="4" t="n">
+      <c r="A349" s="5" t="n">
         <v>44176</v>
       </c>
-      <c r="B349" s="5" t="n">
+      <c r="B349" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="4" t="n">
+      <c r="A350" s="5" t="n">
         <v>44177</v>
       </c>
-      <c r="B350" s="5" t="n">
+      <c r="B350" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="4" t="n">
+      <c r="A351" s="5" t="n">
         <v>44178</v>
       </c>
-      <c r="B351" s="5" t="n">
+      <c r="B351" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="4" t="n">
+      <c r="A352" s="5" t="n">
         <v>44179</v>
       </c>
-      <c r="B352" s="5" t="n">
+      <c r="B352" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="4" t="n">
+      <c r="A353" s="5" t="n">
         <v>44180</v>
       </c>
-      <c r="B353" s="5" t="n">
+      <c r="B353" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="4" t="n">
+      <c r="A354" s="5" t="n">
         <v>44181</v>
       </c>
-      <c r="B354" s="5" t="n">
+      <c r="B354" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="4" t="n">
+      <c r="A355" s="5" t="n">
         <v>44182</v>
       </c>
-      <c r="B355" s="5" t="n">
+      <c r="B355" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="4" t="n">
+      <c r="A356" s="5" t="n">
         <v>44183</v>
       </c>
-      <c r="B356" s="5" t="n">
+      <c r="B356" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="4" t="n">
+      <c r="A357" s="5" t="n">
         <v>44184</v>
       </c>
-      <c r="B357" s="5" t="n">
+      <c r="B357" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="4" t="n">
+      <c r="A358" s="5" t="n">
         <v>44185</v>
       </c>
-      <c r="B358" s="5" t="n">
+      <c r="B358" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="4" t="n">
+      <c r="A359" s="5" t="n">
         <v>44186</v>
       </c>
-      <c r="B359" s="5" t="n">
+      <c r="B359" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="4" t="n">
+      <c r="A360" s="5" t="n">
         <v>44187</v>
       </c>
-      <c r="B360" s="5" t="n">
+      <c r="B360" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="4" t="n">
+      <c r="A361" s="5" t="n">
         <v>44188</v>
       </c>
-      <c r="B361" s="5" t="n">
+      <c r="B361" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="4" t="n">
+      <c r="A362" s="5" t="n">
         <v>44189</v>
       </c>
-      <c r="B362" s="5" t="n">
+      <c r="B362" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="4" t="n">
+      <c r="A363" s="5" t="n">
         <v>44190</v>
       </c>
-      <c r="B363" s="5" t="n">
+      <c r="B363" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="4" t="n">
+      <c r="A364" s="5" t="n">
         <v>44191</v>
       </c>
-      <c r="B364" s="5" t="n">
+      <c r="B364" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="4" t="n">
+      <c r="A365" s="5" t="n">
         <v>44192</v>
       </c>
-      <c r="B365" s="5" t="n">
+      <c r="B365" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="4" t="n">
+      <c r="A366" s="5" t="n">
         <v>44193</v>
       </c>
-      <c r="B366" s="5" t="n">
+      <c r="B366" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="4" t="n">
+      <c r="A367" s="5" t="n">
         <v>44194</v>
       </c>
-      <c r="B367" s="5" t="n">
+      <c r="B367" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="4" t="n">
+      <c r="A368" s="5" t="n">
         <v>44195</v>
       </c>
-      <c r="B368" s="5" t="n">
+      <c r="B368" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="4" t="n">
+      <c r="A369" s="5" t="n">
         <v>44196</v>
       </c>
-      <c r="B369" s="5" t="n">
+      <c r="B369" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8300,791 +8320,791 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <f aca="false">C5+D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="C5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <f aca="false">C6+D6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <f aca="false">C7+D7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
+      <c r="C7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <f aca="false">C8+D8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="n">
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <f aca="false">C9+D9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="n">
+      <c r="C9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <f aca="false">C10+D10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <f aca="false">C11+D11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="n">
+      <c r="C11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="6" t="n">
         <f aca="false">C12+D12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <f aca="false">C13+D13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="n">
+      <c r="C13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <f aca="false">C14+D14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="C14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <f aca="false">C15+D15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="n">
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <f aca="false">C16+D16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="n">
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <f aca="false">C17+D17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="n">
+      <c r="C17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <f aca="false">C18+D18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <f aca="false">C19+D19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="n">
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <f aca="false">C20+D20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
+      <c r="C20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <f aca="false">C21+D21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="n">
+      <c r="C21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="6" t="n">
         <f aca="false">C22+D22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
+      <c r="C22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="6" t="n">
         <f aca="false">C23+D23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="n">
+      <c r="C23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="6" t="n">
         <f aca="false">C24+D24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5" t="n">
+      <c r="C24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <f aca="false">C25+D25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5" t="n">
+      <c r="C25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="6" t="n">
         <f aca="false">C26+D26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
+      <c r="C26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <f aca="false">C27+D27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5" t="n">
+      <c r="C27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <f aca="false">C28+D28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5" t="n">
+      <c r="C28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <f aca="false">SUM(B5:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <f aca="false">SUM(C5:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <f aca="false">SUM(D5:D28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="n">
+        <f aca="false">C37+D37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6" t="n">
+        <f aca="false">C38+D38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <f aca="false">C39+D39</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <f aca="false">C40+D40</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <f aca="false">C41+D41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <f aca="false">C42+D42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" s="6" t="n">
+        <f aca="false">C43+D43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <f aca="false">C44+D44</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <f aca="false">C45+D45</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6" t="n">
+        <f aca="false">C46+D46</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="B47" s="6" t="n">
+        <f aca="false">C47+D47</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B48" s="6" t="n">
+        <f aca="false">C48+D48</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B49" s="6" t="n">
+        <f aca="false">C49+D49</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <f aca="false">C50+D50</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <f aca="false">C51+D51</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <f aca="false">C52+D52</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <f aca="false">C53+D53</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <f aca="false">C54+D54</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <f aca="false">C55+D55</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <f aca="false">C56+D56</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <f aca="false">C57+D57</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <f aca="false">SUM(B5:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">SUM(C5:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <f aca="false">SUM(D5:D28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B58" s="6" t="n">
+        <f aca="false">C58+D58</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <f aca="false">C37+D37</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <f aca="false">C38+D38</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <f aca="false">C39+D39</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <f aca="false">C40+D40</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" s="5" t="n">
-        <f aca="false">C41+D41</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" s="5" t="n">
-        <f aca="false">C42+D42</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B43" s="5" t="n">
-        <f aca="false">C43+D43</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B44" s="5" t="n">
-        <f aca="false">C44+D44</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B45" s="5" t="n">
-        <f aca="false">C45+D45</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B46" s="5" t="n">
-        <f aca="false">C46+D46</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B47" s="5" t="n">
-        <f aca="false">C47+D47</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B48" s="5" t="n">
-        <f aca="false">C48+D48</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B49" s="5" t="n">
-        <f aca="false">C49+D49</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B50" s="5" t="n">
-        <f aca="false">C50+D50</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B51" s="5" t="n">
-        <f aca="false">C51+D51</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B52" s="5" t="n">
-        <f aca="false">C52+D52</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B53" s="5" t="n">
-        <f aca="false">C53+D53</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B54" s="5" t="n">
-        <f aca="false">C54+D54</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B55" s="5" t="n">
-        <f aca="false">C55+D55</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B56" s="5" t="n">
-        <f aca="false">C56+D56</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B57" s="5" t="n">
-        <f aca="false">C57+D57</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B58" s="5" t="n">
-        <f aca="false">C58+D58</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="6" t="n">
         <f aca="false">C59+D59</f>
         <v>0</v>
       </c>
-      <c r="C59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="5" t="n">
+      <c r="C59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="6" t="n">
         <f aca="false">C60+D60</f>
         <v>0</v>
       </c>
-      <c r="C60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="5" t="n">
+      <c r="C60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9110,74 +9130,74 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9195,6 +9215,63 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:K58"/>
@@ -9203,7 +9280,7 @@
       <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="8.71"/>
@@ -9212,352 +9289,352 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="n">
+      <c r="A1" s="7" t="str">
         <f aca="false">Data_count!B3</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+        <v> </v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="str">
         <f aca="false">Data_count!B4</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="10" t="n">
+        <v> </v>
+      </c>
+      <c r="G2" s="11" t="str">
         <f aca="false">Data_count!B5</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="n">
+        <v> </v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="str">
         <f aca="false">Data_count!B6</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="str">
         <f aca="false">Data_count!B10</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="12" t="str">
         <f aca="false">Data_count!B7</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="12" t="n">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="str">
         <f aca="false">Data_count!B13</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="12" t="str">
         <f aca="false">Data_count!B8</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="13" t="str">
         <f aca="false">Data_count!B14</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="12" t="str">
         <f aca="false">Data_count!B9</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="C6" s="14"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="G7" s="14" t="n">
+      <c r="A7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="G7" s="15" t="str">
         <f aca="false">Data_count!B11</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+        <v> </v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="C8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="e">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="e">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="e">
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20" t="e">
+      <c r="I9" s="20"/>
+      <c r="J9" s="21" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="24" t="s">
-        <v>34</v>
+      <c r="K10" s="25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="27" t="e">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="28" t="e">
         <f aca="false">D11+E11</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="28" t="e">
+      <c r="D11" s="29" t="e">
         <f aca="false">F11+H11</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="28" t="e">
+      <c r="E11" s="29" t="e">
         <f aca="false">G11+I11</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="28" t="e">
+      <c r="F11" s="29" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="28" t="e">
+      <c r="G11" s="29" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="28" t="e">
+      <c r="H11" s="29" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="28" t="e">
+      <c r="I11" s="29" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="29" t="e">
+      <c r="J11" s="30" t="e">
         <f aca="false">100/D11*H11</f>
         <v>#REF!</v>
       </c>
-      <c r="K11" s="30" t="e">
+      <c r="K11" s="31" t="e">
         <f aca="false">100/E11*I11</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="33" t="e">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="34" t="e">
         <f aca="false">D12+E12</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="34" t="e">
+      <c r="D12" s="35" t="e">
         <f aca="false">F12+H12</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="34" t="e">
+      <c r="E12" s="35" t="e">
         <f aca="false">G12+I12</f>
         <v>#REF!</v>
       </c>
-      <c r="F12" s="34" t="e">
+      <c r="F12" s="35" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G12" s="34" t="e">
+      <c r="G12" s="35" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="34" t="e">
+      <c r="H12" s="35" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I12" s="34" t="e">
+      <c r="I12" s="35" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J12" s="35" t="e">
+      <c r="J12" s="36" t="e">
         <f aca="false">100/D12*H12</f>
         <v>#REF!</v>
       </c>
-      <c r="K12" s="36" t="e">
+      <c r="K12" s="37" t="e">
         <f aca="false">100/E12*I12</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
-        <v>37</v>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
+      <c r="A35" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38" t="e">
+      <c r="A36" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39" t="e">
         <f aca="false">F12+G12</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="39"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="38" t="e">
+      <c r="A37" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39" t="e">
         <f aca="false">F11+G11</f>
         <v>#REF!</v>
       </c>
-      <c r="K37" s="39"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38" t="e">
+      <c r="A38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39" t="e">
         <f aca="false">J36-J37</f>
         <v>#REF!</v>
       </c>
-      <c r="K38" s="39"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
+      <c r="A39" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
+      <c r="A40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
+      <c r="A41" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9569,28 +9646,28 @@
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
+      <c r="A51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
+      <c r="A52" s="41"/>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
+      <c r="A53" s="41"/>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
+      <c r="A54" s="41"/>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
+      <c r="A55" s="41"/>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40"/>
+      <c r="A56" s="41"/>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40"/>
+      <c r="A57" s="41"/>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="40"/>
+      <c r="A58" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9621,7 +9698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
@@ -9632,7 +9709,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="9.59"/>
@@ -9642,178 +9719,155 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="n">
+      <c r="A1" s="7" t="str">
         <f aca="false">Data_count!B3</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="N1" s="41"/>
+        <v> </v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="str">
         <f aca="false">Data_count!B4</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="10" t="n">
+        <v> </v>
+      </c>
+      <c r="G2" s="11" t="str">
         <f aca="false">Data_count!B5</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="N2" s="8" t="n">
+        <v> </v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="N2" s="9" t="str">
         <f aca="false">Data_count!B6</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="str">
         <f aca="false">Data_count!B10</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="J3" s="7"/>
-      <c r="N3" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="N3" s="12" t="str">
         <f aca="false">Data_count!B7</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="12" t="n">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="str">
         <f aca="false">Data_count!B13</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="N4" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="N4" s="12" t="str">
         <f aca="false">Data_count!B8</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="13" t="str">
         <f aca="false">Data_count!B14</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="N5" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="N5" s="12" t="str">
         <f aca="false">Data_count!B9</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="G6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="N6" s="41"/>
+      <c r="A6" s="10"/>
+      <c r="C6" s="14"/>
+      <c r="G6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="G7" s="15"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="N7" s="41"/>
+      <c r="A7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="n">
+      <c r="A8" s="10"/>
+      <c r="C8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="str">
         <f aca="false">Data_count!B11</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="N8" s="41"/>
+        <v> </v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="N8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-    </row>
-    <row r="10" s="43" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="44"/>
-      <c r="N10" s="44"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+    </row>
+    <row r="10" s="44" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="45"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
       <c r="L11" s="46"/>
       <c r="M11" s="47"/>
       <c r="N11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
       <c r="L12" s="49"/>
       <c r="M12" s="47"/>
       <c r="N12" s="48"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="45"/>
+        <v>56</v>
+      </c>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
       <c r="N13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>0</v>
@@ -9844,14 +9898,13 @@
         <f aca="false">AVERAGE(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="45"/>
       <c r="L14" s="49"/>
       <c r="M14" s="53"/>
       <c r="N14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="52" t="n">
         <v>0</v>
@@ -9882,14 +9935,13 @@
         <f aca="false">AVERAGE(B15:H15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="45"/>
       <c r="L15" s="49"/>
       <c r="M15" s="53"/>
       <c r="N15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="52" t="n">
         <v>0</v>
@@ -9920,14 +9972,13 @@
         <f aca="false">AVERAGE(B16:H16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="45"/>
       <c r="L16" s="49"/>
       <c r="M16" s="53"/>
       <c r="N16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="52" t="n">
         <v>0</v>
@@ -9958,14 +10009,13 @@
         <f aca="false">AVERAGE(B17:H17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="45"/>
       <c r="L17" s="49"/>
       <c r="M17" s="53"/>
       <c r="N17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="52" t="n">
         <v>0</v>
@@ -9996,14 +10046,13 @@
         <f aca="false">AVERAGE(B18:H18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="45"/>
       <c r="L18" s="49"/>
       <c r="M18" s="53"/>
       <c r="N18" s="51"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="52" t="n">
         <v>0</v>
@@ -10034,14 +10083,13 @@
         <f aca="false">AVERAGE(B19:H19)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="45"/>
       <c r="L19" s="49"/>
       <c r="M19" s="53"/>
       <c r="N19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="52" t="n">
         <v>0</v>
@@ -10072,14 +10120,13 @@
         <f aca="false">AVERAGE(B20:H20)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="45"/>
       <c r="L20" s="49"/>
       <c r="M20" s="53"/>
       <c r="N20" s="51"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="52" t="n">
         <v>0</v>
@@ -10110,14 +10157,13 @@
         <f aca="false">AVERAGE(B21:H21)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="45"/>
       <c r="L21" s="49"/>
       <c r="M21" s="53"/>
       <c r="N21" s="51"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="52" t="n">
         <v>0</v>
@@ -10148,14 +10194,13 @@
         <f aca="false">AVERAGE(B22:H22)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="45"/>
       <c r="L22" s="49"/>
       <c r="M22" s="53"/>
       <c r="N22" s="51"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="52" t="n">
         <v>0</v>
@@ -10186,14 +10231,13 @@
         <f aca="false">AVERAGE(B23:H23)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="45"/>
       <c r="L23" s="49"/>
       <c r="M23" s="53"/>
       <c r="N23" s="51"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="52" t="n">
         <v>0</v>
@@ -10224,14 +10268,13 @@
         <f aca="false">AVERAGE(B24:H24)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="45"/>
       <c r="L24" s="49"/>
       <c r="M24" s="53"/>
       <c r="N24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" s="52" t="n">
         <v>0</v>
@@ -10262,14 +10305,13 @@
         <f aca="false">AVERAGE(B25:H25)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="45"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
       <c r="N25" s="51"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="52" t="n">
         <v>0</v>
@@ -10300,14 +10342,13 @@
         <f aca="false">AVERAGE(B26:H26)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="45"/>
       <c r="L26" s="49"/>
       <c r="M26" s="53"/>
       <c r="N26" s="51"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="52" t="n">
         <v>0</v>
@@ -10338,14 +10379,13 @@
         <f aca="false">AVERAGE(B27:H27)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="45"/>
       <c r="L27" s="49"/>
       <c r="M27" s="53"/>
       <c r="N27" s="51"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="52" t="n">
         <v>0</v>
@@ -10376,14 +10416,13 @@
         <f aca="false">AVERAGE(B28:H28)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="45"/>
       <c r="L28" s="49"/>
       <c r="M28" s="53"/>
       <c r="N28" s="51"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="52" t="n">
         <v>0</v>
@@ -10414,14 +10453,13 @@
         <f aca="false">AVERAGE(B29:H29)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="45"/>
       <c r="L29" s="49"/>
       <c r="M29" s="53"/>
       <c r="N29" s="51"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="52" t="n">
         <v>0</v>
@@ -10452,14 +10490,13 @@
         <f aca="false">AVERAGE(B30:H30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="45"/>
       <c r="L30" s="49"/>
       <c r="M30" s="53"/>
       <c r="N30" s="51"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="52" t="n">
         <v>0</v>
@@ -10490,14 +10527,13 @@
         <f aca="false">AVERAGE(B31:H31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="45"/>
       <c r="L31" s="49"/>
       <c r="M31" s="53"/>
       <c r="N31" s="51"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="52" t="n">
         <v>0</v>
@@ -10528,14 +10564,13 @@
         <f aca="false">AVERAGE(B32:H32)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="45"/>
       <c r="L32" s="49"/>
       <c r="M32" s="53"/>
       <c r="N32" s="51"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="52" t="n">
         <v>0</v>
@@ -10566,14 +10601,13 @@
         <f aca="false">AVERAGE(B33:H33)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="45"/>
       <c r="L33" s="49"/>
       <c r="M33" s="53"/>
       <c r="N33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="52" t="n">
         <v>0</v>
@@ -10604,14 +10638,13 @@
         <f aca="false">AVERAGE(B34:H34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="45"/>
       <c r="L34" s="49"/>
       <c r="M34" s="53"/>
       <c r="N34" s="51"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="52" t="n">
         <v>0</v>
@@ -10642,14 +10675,13 @@
         <f aca="false">AVERAGE(B35:H35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="45"/>
       <c r="L35" s="49"/>
       <c r="M35" s="53"/>
       <c r="N35" s="51"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="52" t="n">
         <v>0</v>
@@ -10680,14 +10712,13 @@
         <f aca="false">AVERAGE(B36:H36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="54"/>
+      <c r="L36" s="41"/>
       <c r="M36" s="46"/>
       <c r="N36" s="51"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="52" t="n">
         <v>0</v>
@@ -10718,48 +10749,44 @@
         <f aca="false">AVERAGE(B37:H37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="45"/>
-      <c r="L37" s="54"/>
+      <c r="L37" s="41"/>
       <c r="M37" s="46"/>
       <c r="N37" s="51"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="0"/>
       <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="54"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="0"/>
+        <v>81</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="58"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="17"/>
       <c r="N39" s="51"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="52" t="n">
         <f aca="false">SUM(B21:B32)</f>
@@ -10797,14 +10824,14 @@
         <f aca="false">SUM(J21:J32)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="17"/>
       <c r="N40" s="51"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="52" t="n">
         <f aca="false">SUM(B20:B35)</f>
@@ -10842,14 +10869,14 @@
         <f aca="false">SUM(J20:J35)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="56"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="17"/>
       <c r="N41" s="51"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="52" t="n">
         <f aca="false">SUM(B20:B37)</f>
@@ -10887,14 +10914,10 @@
         <f aca="false">SUM(J20:J37)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="52" t="n">
         <f aca="false">SUM(B14:B37)</f>
@@ -10932,100 +10955,92 @@
         <f aca="false">SUM(J14:J37)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="0"/>
+        <v>86</v>
+      </c>
+      <c r="B46" s="4"/>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I47" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
+        <v>56</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="52" t="n">
         <v>0</v>
@@ -11056,14 +11071,14 @@
         <f aca="false">AVERAGE(B48:H48)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="52" t="n">
         <v>0</v>
@@ -11094,14 +11109,14 @@
         <f aca="false">AVERAGE(B49:H49)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="52" t="n">
         <v>0</v>
@@ -11132,14 +11147,14 @@
         <f aca="false">AVERAGE(B50:H50)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="52" t="n">
         <v>0</v>
@@ -11170,14 +11185,14 @@
         <f aca="false">AVERAGE(B51:H51)</f>
         <v>0</v>
       </c>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="52" t="n">
         <v>0</v>
@@ -11208,14 +11223,14 @@
         <f aca="false">AVERAGE(B52:H52)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="52" t="n">
         <v>0</v>
@@ -11246,14 +11261,14 @@
         <f aca="false">AVERAGE(B53:H53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="52" t="n">
         <v>0</v>
@@ -11284,14 +11299,14 @@
         <f aca="false">AVERAGE(B54:H54)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="52" t="n">
         <v>0</v>
@@ -11322,14 +11337,14 @@
         <f aca="false">AVERAGE(B55:H55)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="52" t="n">
         <v>0</v>
@@ -11360,14 +11375,14 @@
         <f aca="false">AVERAGE(B56:H56)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="52" t="n">
         <v>0</v>
@@ -11398,14 +11413,14 @@
         <f aca="false">AVERAGE(B57:H57)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B58" s="52" t="n">
         <v>0</v>
@@ -11436,14 +11451,14 @@
         <f aca="false">AVERAGE(B58:H58)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="52" t="n">
         <v>0</v>
@@ -11474,301 +11489,214 @@
         <f aca="false">AVERAGE(B59:H59)</f>
         <v>0</v>
       </c>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="45"/>
       <c r="B60" s="49"/>
       <c r="C60" s="53"/>
       <c r="D60" s="51"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
+      <c r="E60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="45"/>
       <c r="B61" s="49"/>
       <c r="C61" s="53"/>
       <c r="D61" s="51"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
+      <c r="E61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="45"/>
       <c r="B62" s="49"/>
       <c r="C62" s="53"/>
       <c r="D62" s="51"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
+      <c r="E62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="45"/>
       <c r="B63" s="49"/>
       <c r="C63" s="53"/>
       <c r="D63" s="51"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
+      <c r="E63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="45"/>
       <c r="B64" s="49"/>
       <c r="C64" s="53"/>
       <c r="D64" s="51"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
+      <c r="E64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="45"/>
       <c r="B65" s="49"/>
       <c r="C65" s="53"/>
       <c r="D65" s="51"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
+      <c r="E65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="45"/>
       <c r="B66" s="49"/>
       <c r="C66" s="53"/>
       <c r="D66" s="51"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
+      <c r="E66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="45"/>
       <c r="B67" s="49"/>
       <c r="C67" s="53"/>
       <c r="D67" s="51"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
+      <c r="E67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="45"/>
       <c r="B68" s="49"/>
       <c r="C68" s="53"/>
       <c r="D68" s="51"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
+      <c r="E68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="45"/>
-      <c r="B69" s="54"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="46"/>
       <c r="D69" s="51"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
+      <c r="E69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="45"/>
-      <c r="B70" s="54"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="46"/>
       <c r="D70" s="51"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
+      <c r="E70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="55"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
+      <c r="A71" s="54"/>
+      <c r="E71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="56"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="58"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="51"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
+      <c r="E72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="56"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="58"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="51"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="56"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="51"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="0"/>
-      <c r="N77" s="0"/>
+      <c r="E77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K78" s="0"/>
-      <c r="L78" s="0"/>
-      <c r="M78" s="0"/>
-      <c r="N78" s="0"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K79" s="0"/>
-      <c r="L79" s="0"/>
-      <c r="M79" s="0"/>
-      <c r="N79" s="0"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M13:N24">
@@ -11800,168 +11728,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N69" activeCellId="0" sqref="N69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="n">
+      <c r="A1" s="7" t="str">
         <f aca="false">Data_count!B3</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+        <v> </v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="str">
         <f aca="false">Data_count!B4</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="10" t="n">
+        <v> </v>
+      </c>
+      <c r="G2" s="11" t="str">
         <f aca="false">Data_count!B5</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="n">
+        <v> </v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="str">
         <f aca="false">Data_count!B6</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="str">
         <f aca="false">Data_count!B10</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="12" t="str">
         <f aca="false">Data_count!B7</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="12" t="n">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="str">
         <f aca="false">Data_count!B13</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="12" t="str">
         <f aca="false">Data_count!B8</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="13" t="str">
         <f aca="false">Data_count!B14</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11" t="n">
+        <v> </v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="12" t="str">
         <f aca="false">Data_count!B9</f>
-        <v>0</v>
+        <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="10"/>
+      <c r="C6" s="14"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="C7" s="13"/>
-      <c r="G7" s="14" t="n">
+      <c r="A7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="G7" s="15" t="str">
         <f aca="false">Data_count!B11</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+        <v> </v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="A10" s="57" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="61" t="s">
-        <v>99</v>
+      <c r="A32" s="57" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="61" t="s">
-        <v>100</v>
+      <c r="A55" s="57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="61" t="s">
-        <v>101</v>
+      <c r="A78" s="57" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12028,4 +11907,181 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:K1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="str">
+        <f aca="false">Data_count!B3</f>
+        <v> </v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="str">
+        <f aca="false">Data_count!B4</f>
+        <v> </v>
+      </c>
+      <c r="G2" s="11" t="str">
+        <f aca="false">Data_count!B5</f>
+        <v> </v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="str">
+        <f aca="false">Data_count!B6</f>
+        <v> </v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="str">
+        <f aca="false">Data_count!B10</f>
+        <v> </v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="12" t="str">
+        <f aca="false">Data_count!B7</f>
+        <v> </v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f aca="false">Data_count!B13</f>
+        <v> </v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="12" t="str">
+        <f aca="false">Data_count!B8</f>
+        <v> </v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="13" t="str">
+        <f aca="false">Data_count!B14</f>
+        <v> </v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="12" t="str">
+        <f aca="false">Data_count!B9</f>
+        <v> </v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="C6" s="14"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="G7" s="15" t="str">
+        <f aca="false">Data_count!B11</f>
+        <v> </v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="57"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="57"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="57"/>
+    </row>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.96805555555556" bottom="0.472222222222222" header="0.708333333333333" footer="0.196527777777778"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
+Département du développement
+territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+Bureau signalisation et circulation
+Neuchâtel, le &amp;D</oddHeader>
+    <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,12 +19,13 @@
     <sheet name="CAT" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$7:$K$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11,CAT!$A$1:$K$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11,CAT!$A$1:$K$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -143,6 +144,18 @@
     <t xml:space="preserve">Direction 2 :</t>
   </si>
   <si>
+    <t xml:space="preserve">Tous vehicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD – velos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD – autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% - autres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dir 2</t>
   </si>
   <si>
@@ -338,16 +351,205 @@
     <t xml:space="preserve">Courbe de variation annuelle</t>
   </si>
   <si>
+    <t xml:space="preserve">Volumes de trafic par direction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Courbe de variation hebdomadaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Volumes de trafic par direction</t>
+    <t xml:space="preserve">Courbe de variation TJMO</t>
   </si>
   <si>
     <t xml:space="preserve">Courbe de variation week-ends</t>
   </si>
   <si>
     <t xml:space="preserve">Categorisation des vehicules MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoverboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trotinette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tandem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-Cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-remorque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi-axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo + essieu junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empattement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giro_roue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GiroPodo-Segway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate XXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trotinette XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117-124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189-193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176-183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179-187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249-257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175-205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225-255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triporteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205-217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-Handi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120-160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180-220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 + 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290-330</t>
   </si>
 </sst>
 </file>
@@ -361,12 +563,12 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
-    <numFmt numFmtId="171" formatCode="0.00%"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.00%&quot;       &quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.00%&quot;       &quot;"/>
+    <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,6 +658,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -467,7 +676,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +701,20 @@
         <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -585,6 +806,83 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -627,7 +925,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -700,19 +998,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,7 +1114,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -832,15 +1130,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,7 +1146,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,8 +1154,104 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -927,7 +1321,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -941,7 +1335,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -967,7 +1361,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -983,7 +1377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$B$36</c:f>
+              <c:f>Data_hour!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -997,7 +1391,9 @@
               <a:srgbClr val="66ffb2"/>
             </a:solidFill>
             <a:ln w="0">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1032,7 +1428,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$B$37:$B$60</c:f>
+              <c:f>Data_hour!$B$5:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1114,8 +1510,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="15523272"/>
-        <c:axId val="36727349"/>
+        <c:axId val="18150241"/>
+        <c:axId val="28094560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1125,7 +1521,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$C$36</c:f>
+              <c:f>Data_hour!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1179,7 +1575,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$C$37:$C$60</c:f>
+              <c:f>Data_hour!$C$5:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1265,7 +1661,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$D$36</c:f>
+              <c:f>Data_hour!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1276,12 +1672,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="ff3333"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="ff3333"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -1290,12 +1687,15 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
@@ -1306,7 +1706,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1316,7 +1716,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$D$37:$D$60</c:f>
+              <c:f>Data_hour!$D$5:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1405,11 +1805,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="15523272"/>
-        <c:axId val="36727349"/>
+        <c:axId val="18150241"/>
+        <c:axId val="28094560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15523272"/>
+        <c:axId val="18150241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1875,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36727349"/>
+        <c:crossAx val="28094560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36727349"/>
+        <c:axId val="28094560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1899,41 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Vehicules MD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1525,8 +1959,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15523272"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="18150241"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1577,657 +2011,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Section</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="66ffb2"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$B$5:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="0"/>
-        <c:overlap val="0"/>
-        <c:axId val="30955963"/>
-        <c:axId val="65784525"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dir1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3333ff"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="3333ff"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$C$5:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dir2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff3333"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$D$5:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="30955963"/>
-        <c:axId val="65784525"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="30955963"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Selon l'heure de la journée</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65784525"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="65784525"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="8b8b8b"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Vehicules à moteur en % du TJMO de la section</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30955963"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4503,11 +4287,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46034304"/>
-        <c:axId val="23547937"/>
+        <c:axId val="10225477"/>
+        <c:axId val="56079330"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46034304"/>
+        <c:axId val="10225477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4319,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23547937"/>
+        <c:crossAx val="56079330"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4543,7 +4327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23547937"/>
+        <c:axId val="56079330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,7 +4364,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46034304"/>
+        <c:crossAx val="10225477"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4628,7 +4412,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4750,11 +4534,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="96137235"/>
-        <c:axId val="80670581"/>
+        <c:axId val="94306536"/>
+        <c:axId val="22789871"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96137235"/>
+        <c:axId val="94306536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,7 +4566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80670581"/>
+        <c:crossAx val="22789871"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4790,7 +4574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80670581"/>
+        <c:axId val="22789871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,7 +4611,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96137235"/>
+        <c:crossAx val="94306536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4875,7 +4659,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5055,6 +4839,1226 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Section</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="66ffb2"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$B$37:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:overlap val="0"/>
+        <c:axId val="1170478"/>
+        <c:axId val="32073234"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3333ff"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3333ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$C$37:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$D$37:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="1170478"/>
+        <c:axId val="32073234"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1170478"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Selon l'heure de la journée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32073234"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="32073234"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170478"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Section</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="66ffb2"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$B$5:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:overlap val="0"/>
+        <c:axId val="90626310"/>
+        <c:axId val="605175"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3333ff"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3333ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$C$5:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$D$5:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="90626310"/>
+        <c:axId val="605175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90626310"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Selon l'heure de la journée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90626310"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5066,9 +6070,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583920</xdr:colOff>
+      <xdr:colOff>583560</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5077,7 +6081,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2676600"/>
-        <a:ext cx="6903360" cy="2910960"/>
+        <a:ext cx="6903000" cy="2910600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5101,9 +6105,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5112,7 +6116,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="49320" y="1924200"/>
-        <a:ext cx="6776280" cy="3038040"/>
+        <a:ext cx="6775920" cy="3037680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5124,16 +6128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>488520</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:colOff>519840</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5141,8 +6145,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="69120" y="5495760"/>
-        <a:ext cx="6707160" cy="3267000"/>
+        <a:off x="3614400" y="5531760"/>
+        <a:ext cx="3193200" cy="1555200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5155,15 +6159,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>52560</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5171,8 +6175,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="197280" y="9239400"/>
-        <a:ext cx="5760360" cy="3238200"/>
+        <a:off x="52560" y="5460120"/>
+        <a:ext cx="3231000" cy="1683720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5184,16 +6188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5201,12 +6205,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="360" y="13030560"/>
-        <a:ext cx="6903360" cy="2910960"/>
+        <a:off x="3628440" y="7963200"/>
+        <a:ext cx="3184560" cy="1342800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="29880" y="7952760"/>
+        <a:ext cx="3243600" cy="1367640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5226,7 +6260,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="119.13"/>
@@ -5355,7 +6389,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -8320,7 +9354,7 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -9130,7 +10164,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -9219,42 +10253,42 @@
   </sheetPr>
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9277,10 +10311,10 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="8.71"/>
@@ -9377,25 +10411,21 @@
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="18" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="C9" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="19" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="F9" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="G9" s="19"/>
-      <c r="H9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="H9" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="21" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="J9" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="K9" s="21"/>
     </row>
@@ -9409,31 +10439,31 @@
         <v>20</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="26"/>
       <c r="B11" s="27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="28" t="e">
         <f aca="false">D11+E11</f>
@@ -9464,18 +10494,18 @@
         <v>#REF!</v>
       </c>
       <c r="J11" s="30" t="e">
-        <f aca="false">100/D11*H11</f>
+        <f aca="false">1/D11*H11</f>
         <v>#REF!</v>
       </c>
       <c r="K11" s="31" t="e">
-        <f aca="false">100/E11*I11</f>
+        <f aca="false">1/E11*I11</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="32"/>
       <c r="B12" s="33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="34" t="e">
         <f aca="false">D12+E12</f>
@@ -9506,17 +10536,17 @@
         <v>#REF!</v>
       </c>
       <c r="J12" s="36" t="e">
-        <f aca="false">100/D12*H12</f>
+        <f aca="false">1/D12*H12</f>
         <v>#REF!</v>
       </c>
       <c r="K12" s="37" t="e">
-        <f aca="false">100/E12*I12</f>
+        <f aca="false">1/E12*I12</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9524,7 +10554,7 @@
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
@@ -9539,7 +10569,7 @@
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
@@ -9557,7 +10587,7 @@
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -9575,7 +10605,7 @@
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
@@ -9593,7 +10623,7 @@
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
@@ -9608,7 +10638,7 @@
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="38" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -9623,7 +10653,7 @@
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
@@ -9706,10 +10736,10 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="9.59"/>
@@ -9787,7 +10817,7 @@
       <c r="A6" s="10"/>
       <c r="C6" s="14"/>
       <c r="G6" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J6" s="8"/>
       <c r="N6" s="42"/>
@@ -9832,34 +10862,34 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
@@ -9867,7 +10897,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>0</v>
@@ -9904,7 +10934,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B15" s="52" t="n">
         <v>0</v>
@@ -9941,7 +10971,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="52" t="n">
         <v>0</v>
@@ -9978,7 +11008,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" s="52" t="n">
         <v>0</v>
@@ -10015,7 +11045,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B18" s="52" t="n">
         <v>0</v>
@@ -10052,7 +11082,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B19" s="52" t="n">
         <v>0</v>
@@ -10089,7 +11119,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="50" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B20" s="52" t="n">
         <v>0</v>
@@ -10126,7 +11156,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="50" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B21" s="52" t="n">
         <v>0</v>
@@ -10163,7 +11193,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="50" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B22" s="52" t="n">
         <v>0</v>
@@ -10200,7 +11230,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="50" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B23" s="52" t="n">
         <v>0</v>
@@ -10237,7 +11267,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="50" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" s="52" t="n">
         <v>0</v>
@@ -10274,7 +11304,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B25" s="52" t="n">
         <v>0</v>
@@ -10311,7 +11341,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B26" s="52" t="n">
         <v>0</v>
@@ -10348,7 +11378,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B27" s="52" t="n">
         <v>0</v>
@@ -10385,7 +11415,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B28" s="52" t="n">
         <v>0</v>
@@ -10422,7 +11452,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B29" s="52" t="n">
         <v>0</v>
@@ -10459,7 +11489,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="50" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B30" s="52" t="n">
         <v>0</v>
@@ -10496,7 +11526,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B31" s="52" t="n">
         <v>0</v>
@@ -10533,7 +11563,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B32" s="52" t="n">
         <v>0</v>
@@ -10570,7 +11600,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B33" s="52" t="n">
         <v>0</v>
@@ -10607,7 +11637,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B34" s="52" t="n">
         <v>0</v>
@@ -10644,7 +11674,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B35" s="52" t="n">
         <v>0</v>
@@ -10681,7 +11711,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B36" s="52" t="n">
         <v>0</v>
@@ -10718,7 +11748,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B37" s="52" t="n">
         <v>0</v>
@@ -10768,7 +11798,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="0"/>
@@ -10786,7 +11816,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B40" s="52" t="n">
         <f aca="false">SUM(B21:B32)</f>
@@ -10831,7 +11861,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="52" t="n">
         <f aca="false">SUM(B20:B35)</f>
@@ -10876,7 +11906,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="50" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" s="52" t="n">
         <f aca="false">SUM(B20:B37)</f>
@@ -10915,9 +11945,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B43" s="52" t="n">
         <f aca="false">SUM(B14:B37)</f>
@@ -10951,7 +11981,7 @@
         <f aca="false">SUM(I14:I37)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="52" t="n">
+      <c r="J43" s="57" t="n">
         <f aca="false">SUM(J14:J37)</f>
         <v>0</v>
       </c>
@@ -10986,7 +12016,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="0"/>
@@ -11004,34 +12034,34 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I47" s="50" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -11040,7 +12070,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B48" s="52" t="n">
         <v>0</v>
@@ -11078,7 +12108,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B49" s="52" t="n">
         <v>0</v>
@@ -11116,7 +12146,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="50" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="52" t="n">
         <v>0</v>
@@ -11154,7 +12184,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B51" s="52" t="n">
         <v>0</v>
@@ -11192,7 +12222,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="50" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="52" t="n">
         <v>0</v>
@@ -11230,7 +12260,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B53" s="52" t="n">
         <v>0</v>
@@ -11268,7 +12298,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="50" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B54" s="52" t="n">
         <v>0</v>
@@ -11306,7 +12336,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B55" s="52" t="n">
         <v>0</v>
@@ -11344,7 +12374,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B56" s="52" t="n">
         <v>0</v>
@@ -11382,7 +12412,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="50" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B57" s="52" t="n">
         <v>0</v>
@@ -11420,7 +12450,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="50" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B58" s="52" t="n">
         <v>0</v>
@@ -11458,7 +12488,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="50" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B59" s="52" t="n">
         <v>0</v>
@@ -11735,11 +12765,11 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N69" activeCellId="0" sqref="N69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.71"/>
@@ -11824,24 +12854,31 @@
       <c r="K7" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
-        <v>99</v>
+      <c r="A10" s="58" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="57" t="s">
-        <v>100</v>
+      <c r="A32" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="57" t="s">
-        <v>101</v>
-      </c>
+      <c r="A55" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="57" t="s">
-        <v>102</v>
-      </c>
+      <c r="A78" s="0"/>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11916,14 +12953,17 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="5" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12005,21 +13045,424 @@
       <c r="K7" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
-        <v>103</v>
-      </c>
+      <c r="A9" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="65"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="72"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="78" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="78" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="78" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="78" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="77" t="n">
+        <v>115</v>
+      </c>
+      <c r="C31" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="78" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="57"/>
+      <c r="A32" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="81" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="57"/>
+      <c r="A55" s="58"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12072,13 +13515,25 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.96805555555556" bottom="0.472222222222222" header="0.708333333333333" footer="0.196527777777778"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
 Département du développement
-territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+territorial et de l'environnement&amp;CComptage mobilité douce&amp;R&amp;8Service des ponts et chaussées
 Bureau signalisation et circulation
 Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>

--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -138,6 +138,12 @@
     <t xml:space="preserve">total</t>
   </si>
   <si>
+    <t xml:space="preserve">velo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Direction 1 :</t>
   </si>
   <si>
@@ -367,9 +373,6 @@
   </si>
   <si>
     <t xml:space="preserve">Class 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">velo</t>
   </si>
   <si>
     <t xml:space="preserve">cycle</t>
@@ -568,7 +571,7 @@
     <numFmt numFmtId="172" formatCode="0.00%&quot;       &quot;"/>
     <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -672,6 +675,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -925,7 +933,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -951,6 +959,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,15 +1174,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1349,7 +1361,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1361,7 +1373,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1510,8 +1522,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="18150241"/>
-        <c:axId val="28094560"/>
+        <c:axId val="49204118"/>
+        <c:axId val="92880767"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1805,11 +1817,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="18150241"/>
-        <c:axId val="28094560"/>
+        <c:axId val="49204118"/>
+        <c:axId val="92880767"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18150241"/>
+        <c:axId val="49204118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1887,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28094560"/>
+        <c:crossAx val="92880767"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1883,7 +1895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28094560"/>
+        <c:axId val="92880767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1971,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18150241"/>
+        <c:crossAx val="49204118"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2011,7 +2023,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4287,11 +4299,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="10225477"/>
-        <c:axId val="56079330"/>
+        <c:axId val="55217692"/>
+        <c:axId val="36118157"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10225477"/>
+        <c:axId val="55217692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,7 +4331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56079330"/>
+        <c:crossAx val="36118157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4327,7 +4339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56079330"/>
+        <c:axId val="36118157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +4376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10225477"/>
+        <c:crossAx val="55217692"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4412,7 +4424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4534,11 +4546,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="94306536"/>
-        <c:axId val="22789871"/>
+        <c:axId val="15631478"/>
+        <c:axId val="64773851"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94306536"/>
+        <c:axId val="15631478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,7 +4578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22789871"/>
+        <c:crossAx val="64773851"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4574,7 +4586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22789871"/>
+        <c:axId val="64773851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4611,7 +4623,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94306536"/>
+        <c:crossAx val="15631478"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4659,7 +4671,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4839,7 +4851,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4986,8 +4998,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="1170478"/>
-        <c:axId val="32073234"/>
+        <c:axId val="18136360"/>
+        <c:axId val="16596523"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5277,11 +5289,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="1170478"/>
-        <c:axId val="32073234"/>
+        <c:axId val="18136360"/>
+        <c:axId val="16596523"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1170478"/>
+        <c:axId val="18136360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,7 +5359,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32073234"/>
+        <c:crossAx val="16596523"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5355,7 +5367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32073234"/>
+        <c:axId val="16596523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5397,7 +5409,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1170478"/>
+        <c:crossAx val="18136360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5449,7 +5461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5596,8 +5608,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="90626310"/>
-        <c:axId val="605175"/>
+        <c:axId val="37486215"/>
+        <c:axId val="97711295"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5887,11 +5899,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="90626310"/>
-        <c:axId val="605175"/>
+        <c:axId val="37486215"/>
+        <c:axId val="97711295"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90626310"/>
+        <c:axId val="37486215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5957,7 +5969,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605175"/>
+        <c:crossAx val="97711295"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5965,7 +5977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605175"/>
+        <c:axId val="97711295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6007,7 +6019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90626310"/>
+        <c:crossAx val="37486215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6054,6 +6066,767 @@
         <a:srgbClr val="d9d9d9"/>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Proportion Velo pour autres Class</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffffff"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>velo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="d4ea6b"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>autres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff7b59"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="18959293"/>
+        <c:axId val="82322664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="18959293"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82322664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82322664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18959293"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Part de trafic des CLASS 2 - 5 hors Class 1 principale (velo)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="99229431"/>
+        <c:axId val="47363245"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99229431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47363245"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47363245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99229431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -6249,6 +7022,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4671360" y="1895760"/>
+        <a:ext cx="2876400" cy="1343160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561960</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4098960" y="3360240"/>
+        <a:ext cx="3436920" cy="2981160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -10251,10 +11089,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10269,27 +11107,77 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>36905</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>2542</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>5</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">SUM(B5:B9)</f>
+        <v>39871</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">B5</f>
+        <v>36905</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">SUM(B6:B9)</f>
+        <v>2966</v>
       </c>
     </row>
   </sheetData>
@@ -10323,348 +11211,348 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="K4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="str">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="15" t="str">
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="A8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="24" t="s">
+      <c r="I10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="25" t="s">
-        <v>39</v>
+      <c r="K10" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="28" t="e">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="29" t="e">
         <f aca="false">D11+E11</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="29" t="e">
+      <c r="D11" s="30" t="e">
         <f aca="false">F11+H11</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="29" t="e">
+      <c r="E11" s="30" t="e">
         <f aca="false">G11+I11</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="29" t="e">
+      <c r="F11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="29" t="e">
+      <c r="G11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="29" t="e">
+      <c r="H11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="29" t="e">
+      <c r="I11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="30" t="e">
+      <c r="J11" s="31" t="e">
         <f aca="false">1/D11*H11</f>
         <v>#REF!</v>
       </c>
-      <c r="K11" s="31" t="e">
+      <c r="K11" s="32" t="e">
         <f aca="false">1/E11*I11</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="34" t="e">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="35" t="e">
         <f aca="false">D12+E12</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="35" t="e">
+      <c r="D12" s="36" t="e">
         <f aca="false">F12+H12</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="35" t="e">
+      <c r="E12" s="36" t="e">
         <f aca="false">G12+I12</f>
         <v>#REF!</v>
       </c>
-      <c r="F12" s="35" t="e">
+      <c r="F12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G12" s="35" t="e">
+      <c r="G12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="35" t="e">
+      <c r="H12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I12" s="35" t="e">
+      <c r="I12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J12" s="36" t="e">
+      <c r="J12" s="37" t="e">
         <f aca="false">1/D12*H12</f>
         <v>#REF!</v>
       </c>
-      <c r="K12" s="37" t="e">
+      <c r="K12" s="38" t="e">
         <f aca="false">1/E12*I12</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
-        <v>42</v>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
+      <c r="A35" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39" t="e">
+      <c r="A36" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40" t="e">
         <f aca="false">F12+G12</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39" t="e">
+      <c r="A37" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40" t="e">
         <f aca="false">F11+G11</f>
         <v>#REF!</v>
       </c>
-      <c r="K37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39" t="e">
+      <c r="A38" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40" t="e">
         <f aca="false">J36-J37</f>
         <v>#REF!</v>
       </c>
-      <c r="K38" s="40"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
+      <c r="A39" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="A40" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
+      <c r="A41" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10676,28 +11564,28 @@
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41"/>
+      <c r="A51" s="42"/>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41"/>
+      <c r="A58" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10749,1039 +11637,1039 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="N1" s="42"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="N2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="N2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="N3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="N3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="N4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="N4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="J5" s="8"/>
-      <c r="N5" s="12" t="str">
+      <c r="G5" s="12"/>
+      <c r="J5" s="9"/>
+      <c r="N5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="G6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="N6" s="42"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="G6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="N7" s="42"/>
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="str">
+      <c r="A8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="N8" s="42"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-    </row>
-    <row r="10" s="44" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" s="45" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="46"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L12" s="49"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="E13" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="F13" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="G13" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="H13" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="52" t="n">
+      <c r="A14" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53" t="n">
         <f aca="false">AVERAGE(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="52" t="n">
+      <c r="J14" s="53" t="n">
         <f aca="false">AVERAGE(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="51"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="52" t="n">
+      <c r="A15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53" t="n">
         <f aca="false">AVERAGE(B15:F15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="52" t="n">
+      <c r="J15" s="53" t="n">
         <f aca="false">AVERAGE(B15:H15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="51"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="52" t="n">
+      <c r="A16" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="53" t="n">
         <f aca="false">AVERAGE(B16:F16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="52" t="n">
+      <c r="J16" s="53" t="n">
         <f aca="false">AVERAGE(B16:H16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="51"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="52" t="n">
+      <c r="A17" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53" t="n">
         <f aca="false">AVERAGE(B17:F17)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="52" t="n">
+      <c r="J17" s="53" t="n">
         <f aca="false">AVERAGE(B17:H17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="51"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="52" t="n">
+      <c r="A18" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="53" t="n">
         <f aca="false">AVERAGE(B18:F18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="52" t="n">
+      <c r="J18" s="53" t="n">
         <f aca="false">AVERAGE(B18:H18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="52" t="n">
+      <c r="A19" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="53" t="n">
         <f aca="false">AVERAGE(B19:F19)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="52" t="n">
+      <c r="J19" s="53" t="n">
         <f aca="false">AVERAGE(B19:H19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="51"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="52" t="n">
+      <c r="A20" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="53" t="n">
         <f aca="false">AVERAGE(B20:F20)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="52" t="n">
+      <c r="J20" s="53" t="n">
         <f aca="false">AVERAGE(B20:H20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="51"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="52" t="n">
+      <c r="A21" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="53" t="n">
         <f aca="false">AVERAGE(B21:F21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="52" t="n">
+      <c r="J21" s="53" t="n">
         <f aca="false">AVERAGE(B21:H21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="51"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="52" t="n">
+      <c r="A22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="53" t="n">
         <f aca="false">AVERAGE(B22:F22)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="52" t="n">
+      <c r="J22" s="53" t="n">
         <f aca="false">AVERAGE(B22:H22)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="51"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="52" t="n">
+      <c r="A23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="53" t="n">
         <f aca="false">AVERAGE(B23:F23)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="52" t="n">
+      <c r="J23" s="53" t="n">
         <f aca="false">AVERAGE(B23:H23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="51"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="52" t="n">
+      <c r="A24" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="53" t="n">
         <f aca="false">AVERAGE(B24:F24)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="52" t="n">
+      <c r="J24" s="53" t="n">
         <f aca="false">AVERAGE(B24:H24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="51"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="52" t="n">
+      <c r="A25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53" t="n">
         <f aca="false">AVERAGE(B25:F25)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="52" t="n">
+      <c r="J25" s="53" t="n">
         <f aca="false">AVERAGE(B25:H25)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="51"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="52" t="n">
+      <c r="A26" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53" t="n">
         <f aca="false">AVERAGE(B26:F26)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="52" t="n">
+      <c r="J26" s="53" t="n">
         <f aca="false">AVERAGE(B26:H26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="51"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="52" t="n">
+      <c r="A27" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53" t="n">
         <f aca="false">AVERAGE(B27:F27)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="52" t="n">
+      <c r="J27" s="53" t="n">
         <f aca="false">AVERAGE(B27:H27)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="51"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="52" t="n">
+      <c r="A28" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="53" t="n">
         <f aca="false">AVERAGE(B28:F28)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="52" t="n">
+      <c r="J28" s="53" t="n">
         <f aca="false">AVERAGE(B28:H28)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="51"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="52" t="n">
+      <c r="A29" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="53" t="n">
         <f aca="false">AVERAGE(B29:F29)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="52" t="n">
+      <c r="J29" s="53" t="n">
         <f aca="false">AVERAGE(B29:H29)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="51"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="52" t="n">
+      <c r="A30" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53" t="n">
         <f aca="false">AVERAGE(B30:F30)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="52" t="n">
+      <c r="J30" s="53" t="n">
         <f aca="false">AVERAGE(B30:H30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="51"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="52" t="n">
+      <c r="A31" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="53" t="n">
         <f aca="false">AVERAGE(B31:F31)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="52" t="n">
+      <c r="J31" s="53" t="n">
         <f aca="false">AVERAGE(B31:H31)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="51"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="52" t="n">
+      <c r="A32" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="53" t="n">
         <f aca="false">AVERAGE(B32:F32)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="52" t="n">
+      <c r="J32" s="53" t="n">
         <f aca="false">AVERAGE(B32:H32)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="51"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="52" t="n">
+      <c r="A33" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="53" t="n">
         <f aca="false">AVERAGE(B33:F33)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="52" t="n">
+      <c r="J33" s="53" t="n">
         <f aca="false">AVERAGE(B33:H33)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="51"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="52" t="n">
+      <c r="A34" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="53" t="n">
         <f aca="false">AVERAGE(B34:F34)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="52" t="n">
+      <c r="J34" s="53" t="n">
         <f aca="false">AVERAGE(B34:H34)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="51"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="52" t="n">
+      <c r="A35" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="53" t="n">
         <f aca="false">AVERAGE(B35:F35)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="52" t="n">
+      <c r="J35" s="53" t="n">
         <f aca="false">AVERAGE(B35:H35)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="51"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="52" t="n">
+      <c r="A36" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="53" t="n">
         <f aca="false">AVERAGE(B36:F36)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="52" t="n">
+      <c r="J36" s="53" t="n">
         <f aca="false">AVERAGE(B36:H36)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="51"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="52" t="n">
+      <c r="A37" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="53" t="n">
         <f aca="false">AVERAGE(B37:F37)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="52" t="n">
+      <c r="J37" s="53" t="n">
         <f aca="false">AVERAGE(B37:H37)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="51"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="52"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
@@ -11794,11 +12682,11 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="54"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="0"/>
@@ -11809,179 +12697,179 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="51"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="52" t="n">
+      <c r="A40" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="53" t="n">
         <f aca="false">SUM(B21:B32)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="52" t="n">
+      <c r="C40" s="53" t="n">
         <f aca="false">SUM(C21:C32)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="52" t="n">
+      <c r="D40" s="53" t="n">
         <f aca="false">SUM(D21:D32)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="52" t="n">
+      <c r="E40" s="53" t="n">
         <f aca="false">SUM(E21:E32)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="52" t="n">
+      <c r="F40" s="53" t="n">
         <f aca="false">SUM(F21:F32)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="52" t="n">
+      <c r="G40" s="53" t="n">
         <f aca="false">SUM(G21:G32)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="52" t="n">
+      <c r="H40" s="53" t="n">
         <f aca="false">SUM(H21:H32)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="52" t="n">
+      <c r="I40" s="53" t="n">
         <f aca="false">SUM(I21:I32)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="52" t="n">
+      <c r="J40" s="53" t="n">
         <f aca="false">SUM(J21:J32)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="55"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="51"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="52"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="52" t="n">
+      <c r="A41" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="53" t="n">
         <f aca="false">SUM(B20:B35)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="52" t="n">
+      <c r="C41" s="53" t="n">
         <f aca="false">SUM(C20:C35)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="52" t="n">
+      <c r="D41" s="53" t="n">
         <f aca="false">SUM(D20:D35)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="52" t="n">
+      <c r="E41" s="53" t="n">
         <f aca="false">SUM(E20:E35)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="52" t="n">
+      <c r="F41" s="53" t="n">
         <f aca="false">SUM(F20:F35)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="52" t="n">
+      <c r="G41" s="53" t="n">
         <f aca="false">SUM(G20:G35)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="52" t="n">
+      <c r="H41" s="53" t="n">
         <f aca="false">SUM(H20:H35)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="52" t="n">
+      <c r="I41" s="53" t="n">
         <f aca="false">SUM(I20:I35)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="52" t="n">
+      <c r="J41" s="53" t="n">
         <f aca="false">SUM(J20:J35)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="55"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="51"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="52" t="n">
+      <c r="A42" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="53" t="n">
         <f aca="false">SUM(B20:B37)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="52" t="n">
+      <c r="C42" s="53" t="n">
         <f aca="false">SUM(C20:C37)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="52" t="n">
+      <c r="D42" s="53" t="n">
         <f aca="false">SUM(D20:D37)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="52" t="n">
+      <c r="E42" s="53" t="n">
         <f aca="false">SUM(E20:E37)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="52" t="n">
+      <c r="F42" s="53" t="n">
         <f aca="false">SUM(F20:F37)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="52" t="n">
+      <c r="G42" s="53" t="n">
         <f aca="false">SUM(G20:G37)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="52" t="n">
+      <c r="H42" s="53" t="n">
         <f aca="false">SUM(H20:H37)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="52" t="n">
+      <c r="I42" s="53" t="n">
         <f aca="false">SUM(I20:I37)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="52" t="n">
+      <c r="J42" s="53" t="n">
         <f aca="false">SUM(J20:J37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="52" t="n">
+      <c r="A43" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="53" t="n">
         <f aca="false">SUM(B14:B37)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="52" t="n">
+      <c r="C43" s="53" t="n">
         <f aca="false">SUM(C14:C37)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="52" t="n">
+      <c r="D43" s="53" t="n">
         <f aca="false">SUM(D14:D37)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="52" t="n">
+      <c r="E43" s="53" t="n">
         <f aca="false">SUM(E14:E37)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="52" t="n">
+      <c r="F43" s="53" t="n">
         <f aca="false">SUM(F14:F37)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="52" t="n">
+      <c r="G43" s="53" t="n">
         <f aca="false">SUM(G14:G37)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="52" t="n">
+      <c r="H43" s="53" t="n">
         <f aca="false">SUM(H14:H37)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="52" t="n">
+      <c r="I43" s="53" t="n">
         <f aca="false">SUM(I14:I37)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="57" t="n">
+      <c r="J43" s="58" t="n">
         <f aca="false">SUM(J14:J37)</f>
         <v>0</v>
       </c>
@@ -12016,7 +12904,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="0"/>
@@ -12033,35 +12921,35 @@
       <c r="N46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="50" t="s">
+      <c r="A47" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="C47" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="D47" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="E47" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="50" t="s">
+      <c r="F47" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I47" s="50" t="s">
+      <c r="G47" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="J47" s="50" t="s">
+      <c r="H47" s="51" t="s">
         <v>60</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="51" t="s">
+        <v>62</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -12069,35 +12957,35 @@
       <c r="N47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="52" t="n">
+      <c r="A48" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="53" t="n">
         <f aca="false">AVERAGE(B48:F48)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="52" t="n">
+      <c r="J48" s="53" t="n">
         <f aca="false">AVERAGE(B48:H48)</f>
         <v>0</v>
       </c>
@@ -12107,35 +12995,35 @@
       <c r="N48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="52" t="n">
+      <c r="A49" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="53" t="n">
         <f aca="false">AVERAGE(B49:F49)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="52" t="n">
+      <c r="J49" s="53" t="n">
         <f aca="false">AVERAGE(B49:H49)</f>
         <v>0</v>
       </c>
@@ -12145,35 +13033,35 @@
       <c r="N49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="52" t="n">
+      <c r="A50" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="53" t="n">
         <f aca="false">AVERAGE(B50:F50)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="52" t="n">
+      <c r="J50" s="53" t="n">
         <f aca="false">AVERAGE(B50:H50)</f>
         <v>0</v>
       </c>
@@ -12183,35 +13071,35 @@
       <c r="N50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="52" t="n">
+      <c r="A51" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="53" t="n">
         <f aca="false">AVERAGE(B51:F51)</f>
         <v>0</v>
       </c>
-      <c r="J51" s="52" t="n">
+      <c r="J51" s="53" t="n">
         <f aca="false">AVERAGE(B51:H51)</f>
         <v>0</v>
       </c>
@@ -12221,35 +13109,35 @@
       <c r="N51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="52" t="n">
+      <c r="A52" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="53" t="n">
         <f aca="false">AVERAGE(B52:F52)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="52" t="n">
+      <c r="J52" s="53" t="n">
         <f aca="false">AVERAGE(B52:H52)</f>
         <v>0</v>
       </c>
@@ -12259,35 +13147,35 @@
       <c r="N52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="52" t="n">
+      <c r="A53" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="53" t="n">
         <f aca="false">AVERAGE(B53:F53)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="52" t="n">
+      <c r="J53" s="53" t="n">
         <f aca="false">AVERAGE(B53:H53)</f>
         <v>0</v>
       </c>
@@ -12297,35 +13185,35 @@
       <c r="N53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="52" t="n">
+      <c r="A54" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="53" t="n">
         <f aca="false">AVERAGE(B54:F54)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="52" t="n">
+      <c r="J54" s="53" t="n">
         <f aca="false">AVERAGE(B54:H54)</f>
         <v>0</v>
       </c>
@@ -12335,35 +13223,35 @@
       <c r="N54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="52" t="n">
+      <c r="A55" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="53" t="n">
         <f aca="false">AVERAGE(B55:F55)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="52" t="n">
+      <c r="J55" s="53" t="n">
         <f aca="false">AVERAGE(B55:H55)</f>
         <v>0</v>
       </c>
@@ -12373,35 +13261,35 @@
       <c r="N55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="52" t="n">
+      <c r="A56" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="53" t="n">
         <f aca="false">AVERAGE(B56:F56)</f>
         <v>0</v>
       </c>
-      <c r="J56" s="52" t="n">
+      <c r="J56" s="53" t="n">
         <f aca="false">AVERAGE(B56:H56)</f>
         <v>0</v>
       </c>
@@ -12411,35 +13299,35 @@
       <c r="N56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="52" t="n">
+      <c r="A57" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="53" t="n">
         <f aca="false">AVERAGE(B57:F57)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="52" t="n">
+      <c r="J57" s="53" t="n">
         <f aca="false">AVERAGE(B57:H57)</f>
         <v>0</v>
       </c>
@@ -12449,35 +13337,35 @@
       <c r="N57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="52" t="n">
+      <c r="A58" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="53" t="n">
         <f aca="false">AVERAGE(B58:F58)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="52" t="n">
+      <c r="J58" s="53" t="n">
         <f aca="false">AVERAGE(B58:H58)</f>
         <v>0</v>
       </c>
@@ -12487,35 +13375,35 @@
       <c r="N58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="52" t="n">
+      <c r="A59" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="53" t="n">
         <f aca="false">AVERAGE(B59:F59)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="52" t="n">
+      <c r="J59" s="53" t="n">
         <f aca="false">AVERAGE(B59:H59)</f>
         <v>0</v>
       </c>
@@ -12525,9 +13413,9 @@
       <c r="N59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="49"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -12535,9 +13423,9 @@
       <c r="N60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="49"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -12545,9 +13433,9 @@
       <c r="N61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="49"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -12555,9 +13443,9 @@
       <c r="N62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="49"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -12565,9 +13453,9 @@
       <c r="N63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="49"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -12575,9 +13463,9 @@
       <c r="N64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="49"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -12585,9 +13473,9 @@
       <c r="N65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="49"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -12595,9 +13483,9 @@
       <c r="N66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="49"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -12605,9 +13493,9 @@
       <c r="N67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="49"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -12615,9 +13503,9 @@
       <c r="N68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="41"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -12625,9 +13513,9 @@
       <c r="N69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="41"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="51"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -12635,7 +13523,7 @@
       <c r="N70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="E71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -12643,10 +13531,10 @@
       <c r="N71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="55"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="51"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -12654,32 +13542,32 @@
       <c r="N72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="55"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="51"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="55"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="51"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -12687,11 +13575,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E75" s="4"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -12699,11 +13587,11 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E76" s="4"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -12776,102 +13664,102 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="K4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="str">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="15" t="str">
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
-        <v>103</v>
+      <c r="A10" s="59" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>105</v>
+      <c r="A32" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="58" t="s">
-        <v>107</v>
+      <c r="A47" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12954,7 +13842,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12967,502 +13855,511 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="K4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="str">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="15" t="str">
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
+      <c r="A9" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="60" t="n">
+        <f aca="false">Data_class!B10</f>
+        <v>39871</v>
+      </c>
+      <c r="G9" s="61" t="n">
+        <f aca="false">Data_class!B5</f>
+        <v>36905</v>
+      </c>
+      <c r="H9" s="62" t="n">
+        <f aca="false">SUM(Data_class!B6:B9)</f>
+        <v>2966</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65" t="s">
+      <c r="B11" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="69"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="69"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="69"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="73"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="79" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="79" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="79" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="79" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="67" t="s">
+      <c r="B30" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="78" t="n">
         <v>115</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="68"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="68"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68" t="s">
+      <c r="C31" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="79" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="68"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="s">
+      <c r="B33" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="71" t="s">
+      <c r="B34" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="72"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="78" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="78" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="78" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="78" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="77" t="n">
+      <c r="B38" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="77" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="77" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D28" s="77" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="77" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="77" t="n">
-        <v>115</v>
-      </c>
-      <c r="C31" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="78" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" s="77" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" s="78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="D38" s="80" t="n">
+      <c r="D38" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="81" t="s">
-        <v>170</v>
+      <c r="E38" s="82" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="58"/>
+      <c r="A55" s="59"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="58"/>
+      <c r="A78" s="59"/>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13538,5 +14435,6 @@
 Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,12 +19,13 @@
     <sheet name="CAT" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$7:$K$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11,CAT!$A$1:$K$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11,CAT!$A$1:$K$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -137,12 +138,30 @@
     <t xml:space="preserve">total</t>
   </si>
   <si>
+    <t xml:space="preserve">velo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Direction 1 :</t>
   </si>
   <si>
     <t xml:space="preserve">Direction 2 :</t>
   </si>
   <si>
+    <t xml:space="preserve">Tous vehicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD – velos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD – autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% - autres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dir 2</t>
   </si>
   <si>
@@ -338,16 +357,202 @@
     <t xml:space="preserve">Courbe de variation annuelle</t>
   </si>
   <si>
+    <t xml:space="preserve">Volumes de trafic par direction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Courbe de variation hebdomadaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Volumes de trafic par direction</t>
+    <t xml:space="preserve">Courbe de variation TJMO</t>
   </si>
   <si>
     <t xml:space="preserve">Courbe de variation week-ends</t>
   </si>
   <si>
     <t xml:space="preserve">Categorisation des vehicules MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoverboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trotinette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tandem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-Cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-remorque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi-axe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo + essieu junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empattement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monocycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giro_roue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GiroPodo-Segway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate XXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trotinette XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117-124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189-193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176-183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179-187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249-257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175-205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225-255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triporteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205-217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-Handi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150-170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velo-horizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120-160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180-220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 + 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290-330</t>
   </si>
 </sst>
 </file>
@@ -361,12 +566,12 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
-    <numFmt numFmtId="171" formatCode="0.00%"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.00%&quot;       &quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.00%&quot;       &quot;"/>
+    <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -456,6 +661,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -466,8 +678,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +709,20 @@
         <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -585,6 +814,83 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -627,7 +933,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -653,6 +959,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,19 +1010,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,7 +1126,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -832,15 +1142,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,7 +1158,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,8 +1166,104 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -927,7 +1333,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -941,7 +1347,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -955,7 +1361,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -967,7 +1373,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -983,7 +1389,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$B$36</c:f>
+              <c:f>Data_hour!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -997,7 +1403,9 @@
               <a:srgbClr val="66ffb2"/>
             </a:solidFill>
             <a:ln w="0">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1032,7 +1440,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$B$37:$B$60</c:f>
+              <c:f>Data_hour!$B$5:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1114,8 +1522,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="15523272"/>
-        <c:axId val="36727349"/>
+        <c:axId val="49204118"/>
+        <c:axId val="92880767"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1125,7 +1533,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$C$36</c:f>
+              <c:f>Data_hour!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1179,7 +1587,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$C$37:$C$60</c:f>
+              <c:f>Data_hour!$C$5:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1265,7 +1673,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_hour!$D$36</c:f>
+              <c:f>Data_hour!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1276,12 +1684,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="ff3333"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="ff3333"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -1290,12 +1699,15 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
@@ -1306,7 +1718,7 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:separator> </c:separator>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1316,7 +1728,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_hour!$D$37:$D$60</c:f>
+              <c:f>Data_hour!$D$5:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1405,11 +1817,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="15523272"/>
-        <c:axId val="36727349"/>
+        <c:axId val="49204118"/>
+        <c:axId val="92880767"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15523272"/>
+        <c:axId val="49204118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1887,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36727349"/>
+        <c:crossAx val="92880767"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36727349"/>
+        <c:axId val="92880767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1911,41 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Vehicules MD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1525,8 +1971,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15523272"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="49204118"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1577,657 +2023,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Section</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="66ffb2"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$B$5:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="0"/>
-        <c:overlap val="0"/>
-        <c:axId val="30955963"/>
-        <c:axId val="65784525"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dir1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3333ff"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="3333ff"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$C$5:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_hour!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dir2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff3333"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="ff3333"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Data_hour!$D$5:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="30955963"/>
-        <c:axId val="65784525"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="30955963"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Selon l'heure de la journée</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65784525"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="65784525"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="8b8b8b"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Vehicules à moteur en % du TJMO de la section</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30955963"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4503,11 +4299,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="46034304"/>
-        <c:axId val="23547937"/>
+        <c:axId val="55217692"/>
+        <c:axId val="36118157"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46034304"/>
+        <c:axId val="55217692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23547937"/>
+        <c:crossAx val="36118157"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4543,7 +4339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23547937"/>
+        <c:axId val="36118157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,7 +4376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46034304"/>
+        <c:crossAx val="55217692"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4628,7 +4424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4750,11 +4546,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="96137235"/>
-        <c:axId val="80670581"/>
+        <c:axId val="15631478"/>
+        <c:axId val="64773851"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96137235"/>
+        <c:axId val="15631478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,7 +4578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80670581"/>
+        <c:crossAx val="64773851"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4790,7 +4586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80670581"/>
+        <c:axId val="64773851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,7 +4623,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96137235"/>
+        <c:crossAx val="15631478"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4875,7 +4671,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5055,6 +4851,1987 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Section</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="66ffb2"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$B$37:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:overlap val="0"/>
+        <c:axId val="18136360"/>
+        <c:axId val="16596523"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3333ff"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3333ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$C$37:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$D$37:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="18136360"/>
+        <c:axId val="16596523"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="18136360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Selon l'heure de la journée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16596523"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16596523"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18136360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Section</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="66ffb2"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$B$5:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="0"/>
+        <c:overlap val="0"/>
+        <c:axId val="37486215"/>
+        <c:axId val="97711295"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3333ff"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3333ff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$C$5:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_hour!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dir2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_hour!$D$5:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="37486215"/>
+        <c:axId val="97711295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="37486215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="fr-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Selon l'heure de la journée</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97711295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97711295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="8b8b8b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37486215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Proportion Velo pour autres Class</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffffff"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>velo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="d4ea6b"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>autres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff7b59"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="18959293"/>
+        <c:axId val="82322664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="18959293"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82322664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82322664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18959293"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="it-CH" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Part de trafic des CLASS 2 - 5 hors Class 1 principale (velo)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_class!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Data_class!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="99229431"/>
+        <c:axId val="47363245"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99229431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47363245"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47363245"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99229431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="it-CH" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5066,9 +6843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583920</xdr:colOff>
+      <xdr:colOff>583560</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5077,7 +6854,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2676600"/>
-        <a:ext cx="6903360" cy="2910960"/>
+        <a:ext cx="6903000" cy="2910600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5101,9 +6878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5112,7 +6889,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="49320" y="1924200"/>
-        <a:ext cx="6776280" cy="3038040"/>
+        <a:ext cx="6775920" cy="3037680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5124,16 +6901,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>488520</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:colOff>519840</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5141,8 +6918,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="69120" y="5495760"/>
-        <a:ext cx="6707160" cy="3267000"/>
+        <a:off x="3614400" y="5531760"/>
+        <a:ext cx="3193200" cy="1555200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5155,15 +6932,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>52560</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5171,8 +6948,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="197280" y="9239400"/>
-        <a:ext cx="5760360" cy="3238200"/>
+        <a:off x="52560" y="5460120"/>
+        <a:ext cx="3231000" cy="1683720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5184,16 +6961,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5201,12 +6978,107 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="360" y="13030560"/>
-        <a:ext cx="6903360" cy="2910960"/>
+        <a:off x="3628440" y="7963200"/>
+        <a:ext cx="3184560" cy="1342800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="29880" y="7952760"/>
+        <a:ext cx="3243600" cy="1367640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4671360" y="1895760"/>
+        <a:ext cx="2876400" cy="1343160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561960</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4098960" y="3360240"/>
+        <a:ext cx="3436920" cy="2981160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5226,7 +7098,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="119.13"/>
@@ -5355,7 +7227,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -8320,7 +10192,7 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -9130,7 +11002,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -9217,45 +11089,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="B5" s="7" t="n">
+        <v>36905</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="B6" s="7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="B7" s="7" t="n">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="B8" s="7" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>5</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">SUM(B5:B9)</f>
+        <v>39871</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">B5</f>
+        <v>36905</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">SUM(B6:B9)</f>
+        <v>2966</v>
       </c>
     </row>
   </sheetData>
@@ -9277,10 +11199,10 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="8.71"/>
@@ -9289,352 +11211,348 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="K4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="str">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="15" t="str">
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="A8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="e">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="29" t="e">
+        <f aca="false">D11+E11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="30" t="e">
+        <f aca="false">F11+H11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="30" t="e">
+        <f aca="false">G11+I11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19" t="e">
+      <c r="G11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="e">
+      <c r="H11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21" t="e">
+      <c r="I11" s="30" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="28" t="e">
-        <f aca="false">D11+E11</f>
+      <c r="J11" s="31" t="e">
+        <f aca="false">1/D11*H11</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="29" t="e">
-        <f aca="false">F11+H11</f>
+      <c r="K11" s="32" t="e">
+        <f aca="false">1/E11*I11</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="29" t="e">
-        <f aca="false">G11+I11</f>
+    </row>
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="35" t="e">
+        <f aca="false">D12+E12</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="29" t="e">
+      <c r="D12" s="36" t="e">
+        <f aca="false">F12+H12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="36" t="e">
+        <f aca="false">G12+I12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="29" t="e">
+      <c r="G12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="29" t="e">
+      <c r="H12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="29" t="e">
+      <c r="I12" s="36" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="30" t="e">
-        <f aca="false">100/D11*H11</f>
+      <c r="J12" s="37" t="e">
+        <f aca="false">1/D12*H12</f>
         <v>#REF!</v>
       </c>
-      <c r="K11" s="31" t="e">
-        <f aca="false">100/E11*I11</f>
+      <c r="K12" s="38" t="e">
+        <f aca="false">1/E12*I12</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="34" t="e">
-        <f aca="false">D12+E12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="35" t="e">
-        <f aca="false">F12+H12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="35" t="e">
-        <f aca="false">G12+I12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="35" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="35" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="35" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="35" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="36" t="e">
-        <f aca="false">100/D12*H12</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="37" t="e">
-        <f aca="false">100/E12*I12</f>
-        <v>#REF!</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
-        <v>38</v>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="40"/>
+      <c r="A35" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39" t="e">
+      <c r="A36" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40" t="e">
         <f aca="false">F12+G12</f>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39" t="e">
+      <c r="A37" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="40" t="e">
         <f aca="false">F11+G11</f>
         <v>#REF!</v>
       </c>
-      <c r="K37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39" t="e">
+      <c r="A38" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="40" t="e">
         <f aca="false">J36-J37</f>
         <v>#REF!</v>
       </c>
-      <c r="K38" s="40"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
+      <c r="A39" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="A40" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
+      <c r="A41" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9646,28 +11564,28 @@
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41"/>
+      <c r="A51" s="42"/>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41"/>
+      <c r="A58" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9706,10 +11624,10 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="9.59"/>
@@ -9719,1039 +11637,1039 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-      <c r="N1" s="42"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="N2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="N2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="N3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="N3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="N4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="N4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="J5" s="8"/>
-      <c r="N5" s="12" t="str">
+      <c r="G5" s="12"/>
+      <c r="J5" s="9"/>
+      <c r="N5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="G6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="N6" s="42"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="G6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="N7" s="42"/>
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="str">
+      <c r="A8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="N8" s="42"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-    </row>
-    <row r="10" s="44" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" s="45" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="46"/>
+      <c r="N10" s="46"/>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L12" s="49"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="51"/>
+      <c r="E13" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="52" t="n">
+      <c r="A14" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53" t="n">
         <f aca="false">AVERAGE(B14:F14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="52" t="n">
+      <c r="J14" s="53" t="n">
         <f aca="false">AVERAGE(B14:H14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="51"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="52" t="n">
+      <c r="A15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53" t="n">
         <f aca="false">AVERAGE(B15:F15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="52" t="n">
+      <c r="J15" s="53" t="n">
         <f aca="false">AVERAGE(B15:H15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="51"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="52" t="n">
+      <c r="A16" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="53" t="n">
         <f aca="false">AVERAGE(B16:F16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="52" t="n">
+      <c r="J16" s="53" t="n">
         <f aca="false">AVERAGE(B16:H16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="51"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="52" t="n">
+      <c r="A17" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53" t="n">
         <f aca="false">AVERAGE(B17:F17)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="52" t="n">
+      <c r="J17" s="53" t="n">
         <f aca="false">AVERAGE(B17:H17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="51"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="52" t="n">
+      <c r="A18" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="53" t="n">
         <f aca="false">AVERAGE(B18:F18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="52" t="n">
+      <c r="J18" s="53" t="n">
         <f aca="false">AVERAGE(B18:H18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="51"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="52" t="n">
+      <c r="A19" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="53" t="n">
         <f aca="false">AVERAGE(B19:F19)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="52" t="n">
+      <c r="J19" s="53" t="n">
         <f aca="false">AVERAGE(B19:H19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="51"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="52" t="n">
+      <c r="A20" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="53" t="n">
         <f aca="false">AVERAGE(B20:F20)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="52" t="n">
+      <c r="J20" s="53" t="n">
         <f aca="false">AVERAGE(B20:H20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="51"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="52" t="n">
+      <c r="A21" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="53" t="n">
         <f aca="false">AVERAGE(B21:F21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="52" t="n">
+      <c r="J21" s="53" t="n">
         <f aca="false">AVERAGE(B21:H21)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="51"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="52" t="n">
+      <c r="A22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="53" t="n">
         <f aca="false">AVERAGE(B22:F22)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="52" t="n">
+      <c r="J22" s="53" t="n">
         <f aca="false">AVERAGE(B22:H22)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="51"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="52" t="n">
+      <c r="A23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="53" t="n">
         <f aca="false">AVERAGE(B23:F23)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="52" t="n">
+      <c r="J23" s="53" t="n">
         <f aca="false">AVERAGE(B23:H23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="51"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="52" t="n">
+      <c r="A24" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="53" t="n">
         <f aca="false">AVERAGE(B24:F24)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="52" t="n">
+      <c r="J24" s="53" t="n">
         <f aca="false">AVERAGE(B24:H24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="51"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="52" t="n">
+      <c r="A25" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53" t="n">
         <f aca="false">AVERAGE(B25:F25)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="52" t="n">
+      <c r="J25" s="53" t="n">
         <f aca="false">AVERAGE(B25:H25)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="51"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="52" t="n">
+      <c r="A26" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53" t="n">
         <f aca="false">AVERAGE(B26:F26)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="52" t="n">
+      <c r="J26" s="53" t="n">
         <f aca="false">AVERAGE(B26:H26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="51"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="52" t="n">
+      <c r="A27" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53" t="n">
         <f aca="false">AVERAGE(B27:F27)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="52" t="n">
+      <c r="J27" s="53" t="n">
         <f aca="false">AVERAGE(B27:H27)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="51"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="52" t="n">
+      <c r="A28" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="53" t="n">
         <f aca="false">AVERAGE(B28:F28)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="52" t="n">
+      <c r="J28" s="53" t="n">
         <f aca="false">AVERAGE(B28:H28)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="51"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="52" t="n">
+      <c r="A29" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="53" t="n">
         <f aca="false">AVERAGE(B29:F29)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="52" t="n">
+      <c r="J29" s="53" t="n">
         <f aca="false">AVERAGE(B29:H29)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="51"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="52" t="n">
+      <c r="A30" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53" t="n">
         <f aca="false">AVERAGE(B30:F30)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="52" t="n">
+      <c r="J30" s="53" t="n">
         <f aca="false">AVERAGE(B30:H30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="51"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="52" t="n">
+      <c r="A31" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="53" t="n">
         <f aca="false">AVERAGE(B31:F31)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="52" t="n">
+      <c r="J31" s="53" t="n">
         <f aca="false">AVERAGE(B31:H31)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="51"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="52" t="n">
+      <c r="A32" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="53" t="n">
         <f aca="false">AVERAGE(B32:F32)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="52" t="n">
+      <c r="J32" s="53" t="n">
         <f aca="false">AVERAGE(B32:H32)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="51"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="52" t="n">
+      <c r="A33" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="53" t="n">
         <f aca="false">AVERAGE(B33:F33)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="52" t="n">
+      <c r="J33" s="53" t="n">
         <f aca="false">AVERAGE(B33:H33)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="51"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="52" t="n">
+      <c r="A34" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="53" t="n">
         <f aca="false">AVERAGE(B34:F34)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="52" t="n">
+      <c r="J34" s="53" t="n">
         <f aca="false">AVERAGE(B34:H34)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="51"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="52" t="n">
+      <c r="A35" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="53" t="n">
         <f aca="false">AVERAGE(B35:F35)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="52" t="n">
+      <c r="J35" s="53" t="n">
         <f aca="false">AVERAGE(B35:H35)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="51"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="52" t="n">
+      <c r="A36" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="53" t="n">
         <f aca="false">AVERAGE(B36:F36)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="52" t="n">
+      <c r="J36" s="53" t="n">
         <f aca="false">AVERAGE(B36:H36)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="51"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="52" t="n">
+      <c r="A37" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="53" t="n">
         <f aca="false">AVERAGE(B37:F37)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="52" t="n">
+      <c r="J37" s="53" t="n">
         <f aca="false">AVERAGE(B37:H37)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="51"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="52"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
@@ -10764,11 +12682,11 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="54"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="0"/>
@@ -10779,179 +12697,179 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="51"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="52" t="n">
+      <c r="A40" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="53" t="n">
         <f aca="false">SUM(B21:B32)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="52" t="n">
+      <c r="C40" s="53" t="n">
         <f aca="false">SUM(C21:C32)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="52" t="n">
+      <c r="D40" s="53" t="n">
         <f aca="false">SUM(D21:D32)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="52" t="n">
+      <c r="E40" s="53" t="n">
         <f aca="false">SUM(E21:E32)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="52" t="n">
+      <c r="F40" s="53" t="n">
         <f aca="false">SUM(F21:F32)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="52" t="n">
+      <c r="G40" s="53" t="n">
         <f aca="false">SUM(G21:G32)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="52" t="n">
+      <c r="H40" s="53" t="n">
         <f aca="false">SUM(H21:H32)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="52" t="n">
+      <c r="I40" s="53" t="n">
         <f aca="false">SUM(I21:I32)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="52" t="n">
+      <c r="J40" s="53" t="n">
         <f aca="false">SUM(J21:J32)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="55"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="51"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="52"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="52" t="n">
+      <c r="A41" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="53" t="n">
         <f aca="false">SUM(B20:B35)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="52" t="n">
+      <c r="C41" s="53" t="n">
         <f aca="false">SUM(C20:C35)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="52" t="n">
+      <c r="D41" s="53" t="n">
         <f aca="false">SUM(D20:D35)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="52" t="n">
+      <c r="E41" s="53" t="n">
         <f aca="false">SUM(E20:E35)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="52" t="n">
+      <c r="F41" s="53" t="n">
         <f aca="false">SUM(F20:F35)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="52" t="n">
+      <c r="G41" s="53" t="n">
         <f aca="false">SUM(G20:G35)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="52" t="n">
+      <c r="H41" s="53" t="n">
         <f aca="false">SUM(H20:H35)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="52" t="n">
+      <c r="I41" s="53" t="n">
         <f aca="false">SUM(I20:I35)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="52" t="n">
+      <c r="J41" s="53" t="n">
         <f aca="false">SUM(J20:J35)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="55"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="51"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="52" t="n">
+      <c r="A42" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="53" t="n">
         <f aca="false">SUM(B20:B37)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="52" t="n">
+      <c r="C42" s="53" t="n">
         <f aca="false">SUM(C20:C37)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="52" t="n">
+      <c r="D42" s="53" t="n">
         <f aca="false">SUM(D20:D37)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="52" t="n">
+      <c r="E42" s="53" t="n">
         <f aca="false">SUM(E20:E37)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="52" t="n">
+      <c r="F42" s="53" t="n">
         <f aca="false">SUM(F20:F37)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="52" t="n">
+      <c r="G42" s="53" t="n">
         <f aca="false">SUM(G20:G37)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="52" t="n">
+      <c r="H42" s="53" t="n">
         <f aca="false">SUM(H20:H37)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="52" t="n">
+      <c r="I42" s="53" t="n">
         <f aca="false">SUM(I20:I37)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="52" t="n">
+      <c r="J42" s="53" t="n">
         <f aca="false">SUM(J20:J37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="52" t="n">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="53" t="n">
         <f aca="false">SUM(B14:B37)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="52" t="n">
+      <c r="C43" s="53" t="n">
         <f aca="false">SUM(C14:C37)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="52" t="n">
+      <c r="D43" s="53" t="n">
         <f aca="false">SUM(D14:D37)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="52" t="n">
+      <c r="E43" s="53" t="n">
         <f aca="false">SUM(E14:E37)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="52" t="n">
+      <c r="F43" s="53" t="n">
         <f aca="false">SUM(F14:F37)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="52" t="n">
+      <c r="G43" s="53" t="n">
         <f aca="false">SUM(G14:G37)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="52" t="n">
+      <c r="H43" s="53" t="n">
         <f aca="false">SUM(H14:H37)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="52" t="n">
+      <c r="I43" s="53" t="n">
         <f aca="false">SUM(I14:I37)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="52" t="n">
+      <c r="J43" s="58" t="n">
         <f aca="false">SUM(J14:J37)</f>
         <v>0</v>
       </c>
@@ -10986,7 +12904,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="0"/>
@@ -11003,35 +12921,35 @@
       <c r="N46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" s="50" t="s">
+      <c r="A47" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="50" t="s">
+      <c r="C47" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="50" t="s">
+      <c r="D47" s="51" t="s">
         <v>56</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="51" t="s">
+        <v>62</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -11039,35 +12957,35 @@
       <c r="N47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="52" t="n">
+      <c r="A48" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="53" t="n">
         <f aca="false">AVERAGE(B48:F48)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="52" t="n">
+      <c r="J48" s="53" t="n">
         <f aca="false">AVERAGE(B48:H48)</f>
         <v>0</v>
       </c>
@@ -11077,35 +12995,35 @@
       <c r="N48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="52" t="n">
+      <c r="A49" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="53" t="n">
         <f aca="false">AVERAGE(B49:F49)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="52" t="n">
+      <c r="J49" s="53" t="n">
         <f aca="false">AVERAGE(B49:H49)</f>
         <v>0</v>
       </c>
@@ -11115,35 +13033,35 @@
       <c r="N49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="52" t="n">
+      <c r="A50" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="53" t="n">
         <f aca="false">AVERAGE(B50:F50)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="52" t="n">
+      <c r="J50" s="53" t="n">
         <f aca="false">AVERAGE(B50:H50)</f>
         <v>0</v>
       </c>
@@ -11153,35 +13071,35 @@
       <c r="N50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="52" t="n">
+      <c r="A51" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="53" t="n">
         <f aca="false">AVERAGE(B51:F51)</f>
         <v>0</v>
       </c>
-      <c r="J51" s="52" t="n">
+      <c r="J51" s="53" t="n">
         <f aca="false">AVERAGE(B51:H51)</f>
         <v>0</v>
       </c>
@@ -11191,35 +13109,35 @@
       <c r="N51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="52" t="n">
+      <c r="A52" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="53" t="n">
         <f aca="false">AVERAGE(B52:F52)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="52" t="n">
+      <c r="J52" s="53" t="n">
         <f aca="false">AVERAGE(B52:H52)</f>
         <v>0</v>
       </c>
@@ -11229,35 +13147,35 @@
       <c r="N52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="52" t="n">
+      <c r="A53" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="53" t="n">
         <f aca="false">AVERAGE(B53:F53)</f>
         <v>0</v>
       </c>
-      <c r="J53" s="52" t="n">
+      <c r="J53" s="53" t="n">
         <f aca="false">AVERAGE(B53:H53)</f>
         <v>0</v>
       </c>
@@ -11267,35 +13185,35 @@
       <c r="N53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="52" t="n">
+      <c r="A54" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="53" t="n">
         <f aca="false">AVERAGE(B54:F54)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="52" t="n">
+      <c r="J54" s="53" t="n">
         <f aca="false">AVERAGE(B54:H54)</f>
         <v>0</v>
       </c>
@@ -11305,35 +13223,35 @@
       <c r="N54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="52" t="n">
+      <c r="A55" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="53" t="n">
         <f aca="false">AVERAGE(B55:F55)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="52" t="n">
+      <c r="J55" s="53" t="n">
         <f aca="false">AVERAGE(B55:H55)</f>
         <v>0</v>
       </c>
@@ -11343,35 +13261,35 @@
       <c r="N55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="52" t="n">
+      <c r="A56" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="53" t="n">
         <f aca="false">AVERAGE(B56:F56)</f>
         <v>0</v>
       </c>
-      <c r="J56" s="52" t="n">
+      <c r="J56" s="53" t="n">
         <f aca="false">AVERAGE(B56:H56)</f>
         <v>0</v>
       </c>
@@ -11381,35 +13299,35 @@
       <c r="N56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="52" t="n">
+      <c r="A57" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="53" t="n">
         <f aca="false">AVERAGE(B57:F57)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="52" t="n">
+      <c r="J57" s="53" t="n">
         <f aca="false">AVERAGE(B57:H57)</f>
         <v>0</v>
       </c>
@@ -11419,35 +13337,35 @@
       <c r="N57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="52" t="n">
+      <c r="A58" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="53" t="n">
         <f aca="false">AVERAGE(B58:F58)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="52" t="n">
+      <c r="J58" s="53" t="n">
         <f aca="false">AVERAGE(B58:H58)</f>
         <v>0</v>
       </c>
@@ -11457,35 +13375,35 @@
       <c r="N58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="52" t="n">
+      <c r="A59" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="53" t="n">
         <f aca="false">AVERAGE(B59:F59)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="52" t="n">
+      <c r="J59" s="53" t="n">
         <f aca="false">AVERAGE(B59:H59)</f>
         <v>0</v>
       </c>
@@ -11495,9 +13413,9 @@
       <c r="N59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="49"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -11505,9 +13423,9 @@
       <c r="N60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="49"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -11515,9 +13433,9 @@
       <c r="N61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="49"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -11525,9 +13443,9 @@
       <c r="N62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="49"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -11535,9 +13453,9 @@
       <c r="N63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="49"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -11545,9 +13463,9 @@
       <c r="N64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="49"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -11555,9 +13473,9 @@
       <c r="N65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="49"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -11565,9 +13483,9 @@
       <c r="N66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="49"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -11575,9 +13493,9 @@
       <c r="N67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="49"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -11585,9 +13503,9 @@
       <c r="N68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="41"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -11595,9 +13513,9 @@
       <c r="N69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="41"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="51"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -11605,7 +13523,7 @@
       <c r="N70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="E71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -11613,10 +13531,10 @@
       <c r="N71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="55"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="51"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -11624,32 +13542,32 @@
       <c r="N72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="55"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="51"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="55"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="51"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
@@ -11657,11 +13575,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E75" s="4"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -11669,11 +13587,11 @@
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E76" s="4"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -11735,113 +13653,120 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N69" activeCellId="0" sqref="N69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="K4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="str">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="15" t="str">
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
-        <v>99</v>
+      <c r="A10" s="59" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="57" t="s">
-        <v>100</v>
+      <c r="A32" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="57" t="s">
-        <v>101</v>
-      </c>
+      <c r="A55" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="57" t="s">
-        <v>102</v>
-      </c>
+      <c r="A78" s="0"/>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11916,110 +13841,525 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="5" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="8" t="str">
         <f aca="false">Data_count!B3</f>
         <v> </v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="11" t="str">
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="str">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="11" t="str">
         <f aca="false">Data_count!B10</f>
         <v> </v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="str">
+      <c r="G3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f aca="false">Data_count!B13</f>
         <v> </v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="str">
+      <c r="J4" s="9"/>
+      <c r="K4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13" t="str">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="str">
         <f aca="false">Data_count!B14</f>
         <v> </v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="str">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="G7" s="15" t="str">
+      <c r="A7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="G7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
-        <v>103</v>
+      <c r="A9" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="60" t="n">
+        <f aca="false">Data_class!B10</f>
+        <v>39871</v>
+      </c>
+      <c r="G9" s="61" t="n">
+        <f aca="false">Data_class!B5</f>
+        <v>36905</v>
+      </c>
+      <c r="H9" s="62" t="n">
+        <f aca="false">SUM(Data_class!B6:B9)</f>
+        <v>2966</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="66"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="69"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="69"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="69"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="73"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="79" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="79" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="79" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="79" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="78" t="n">
+        <v>115</v>
+      </c>
+      <c r="C31" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="79" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="57"/>
+      <c r="A32" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" s="81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="82" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="57"/>
+      <c r="A55" s="59"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="57"/>
+      <c r="A78" s="59"/>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12072,16 +14412,29 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.96805555555556" bottom="0.472222222222222" header="0.708333333333333" footer="0.196527777777778"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
 Département du développement
-territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+territorial et de l'environnement&amp;CComptage mobilité douce&amp;R&amp;8Service des ponts et chaussées
 Bureau signalisation et circulation
 Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data_count" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,13 +19,14 @@
     <sheet name="CAT" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$Z$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$7:$K$59</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">AN_TE!$A$1:$N$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11,CAT!$A$1:$K$55</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">CV_LV!$A$1:$K$58</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">AN_GR!$A$1:$K$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">AN_GR!$A$1:$K$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0" vbProcedure="false">AN_GR!$A$1:$K$11,AN_GR!$A$1:$K$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm.Print_Area" vbProcedure="false">CAT!$A$1:$K$11,CAT!$A$1:$K$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="173">
   <si>
     <t xml:space="preserve">Data of the count</t>
   </si>
@@ -352,6 +353,9 @@
   </si>
   <si>
     <t xml:space="preserve">décembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfla</t>
   </si>
   <si>
     <t xml:space="preserve">Courbe de variation annuelle</t>
@@ -1373,7 +1377,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1522,8 +1526,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="49204118"/>
-        <c:axId val="92880767"/>
+        <c:axId val="71537675"/>
+        <c:axId val="84287301"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1817,11 +1821,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="49204118"/>
-        <c:axId val="92880767"/>
+        <c:axId val="71537675"/>
+        <c:axId val="84287301"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49204118"/>
+        <c:axId val="71537675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,7 +1891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92880767"/>
+        <c:crossAx val="84287301"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1895,7 +1899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92880767"/>
+        <c:axId val="84287301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1975,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49204118"/>
+        <c:crossAx val="71537675"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2023,7 +2027,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4299,11 +4303,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55217692"/>
-        <c:axId val="36118157"/>
+        <c:axId val="46638155"/>
+        <c:axId val="80419887"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55217692"/>
+        <c:axId val="46638155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,7 +4335,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36118157"/>
+        <c:crossAx val="80419887"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4339,7 +4343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36118157"/>
+        <c:axId val="80419887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4376,7 +4380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55217692"/>
+        <c:crossAx val="46638155"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4424,7 +4428,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4546,11 +4550,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="15631478"/>
-        <c:axId val="64773851"/>
+        <c:axId val="73001233"/>
+        <c:axId val="19408962"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15631478"/>
+        <c:axId val="73001233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4582,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64773851"/>
+        <c:crossAx val="19408962"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4586,7 +4590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64773851"/>
+        <c:axId val="19408962"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,7 +4627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15631478"/>
+        <c:crossAx val="73001233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4671,7 +4675,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4851,7 +4855,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4998,8 +5002,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="18136360"/>
-        <c:axId val="16596523"/>
+        <c:axId val="49361410"/>
+        <c:axId val="24963102"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5289,11 +5293,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="18136360"/>
-        <c:axId val="16596523"/>
+        <c:axId val="49361410"/>
+        <c:axId val="24963102"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18136360"/>
+        <c:axId val="49361410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16596523"/>
+        <c:crossAx val="24963102"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5367,7 +5371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16596523"/>
+        <c:axId val="24963102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,7 +5413,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18136360"/>
+        <c:crossAx val="49361410"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5461,7 +5465,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5608,8 +5612,8 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="0"/>
-        <c:axId val="37486215"/>
-        <c:axId val="97711295"/>
+        <c:axId val="96978235"/>
+        <c:axId val="53239184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5899,11 +5903,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="37486215"/>
-        <c:axId val="97711295"/>
+        <c:axId val="96978235"/>
+        <c:axId val="53239184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37486215"/>
+        <c:axId val="96978235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5969,7 +5973,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97711295"/>
+        <c:crossAx val="53239184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5977,7 +5981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97711295"/>
+        <c:axId val="53239184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6019,7 +6023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37486215"/>
+        <c:crossAx val="96978235"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6071,7 +6075,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6147,6 +6151,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6208,6 +6213,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6269,6 +6275,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6297,17 +6304,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18959293"/>
-        <c:axId val="82322664"/>
+        <c:axId val="24653214"/>
+        <c:axId val="41931266"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18959293"/>
+        <c:axId val="24653214"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6329,7 +6336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82322664"/>
+        <c:crossAx val="41931266"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6337,7 +6344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82322664"/>
+        <c:axId val="41931266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6352,7 +6359,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6374,7 +6381,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18959293"/>
+        <c:crossAx val="24653214"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6422,7 +6429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6496,6 +6503,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6557,6 +6565,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6618,6 +6627,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6679,6 +6689,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6707,17 +6718,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="99229431"/>
-        <c:axId val="47363245"/>
+        <c:axId val="67137129"/>
+        <c:axId val="62120218"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99229431"/>
+        <c:axId val="67137129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6739,7 +6750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47363245"/>
+        <c:crossAx val="62120218"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6747,7 +6758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47363245"/>
+        <c:axId val="62120218"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6762,7 +6773,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6784,7 +6795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99229431"/>
+        <c:crossAx val="67137129"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6843,9 +6854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583560</xdr:colOff>
+      <xdr:colOff>583200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6854,7 +6865,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2676600"/>
-        <a:ext cx="6903000" cy="2910600"/>
+        <a:ext cx="6902640" cy="2910240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6877,10 +6888,10 @@
       <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>537480</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>341280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6889,7 +6900,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="49320" y="1924200"/>
-        <a:ext cx="6775920" cy="3037680"/>
+        <a:ext cx="16439760" cy="3037320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6901,16 +6912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400320</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>519840</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>297360</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6918,8 +6929,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3614400" y="5531760"/>
-        <a:ext cx="3193200" cy="1555200"/>
+        <a:off x="8934840" y="5477760"/>
+        <a:ext cx="7510320" cy="2101320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6937,10 +6948,10 @@
       <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>615600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6949,7 +6960,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="52560" y="5460120"/>
-        <a:ext cx="3231000" cy="1683720"/>
+        <a:ext cx="8125560" cy="2108160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6961,16 +6972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414360</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>264240</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6978,8 +6989,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3628440" y="7963200"/>
-        <a:ext cx="3184560" cy="1342800"/>
+        <a:off x="8938440" y="7920000"/>
+        <a:ext cx="7473600" cy="2066400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6997,10 +7008,10 @@
       <xdr:rowOff>104400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>59400</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7009,7 +7020,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="29880" y="7952760"/>
-        <a:ext cx="3243600" cy="1367640"/>
+        <a:ext cx="8104320" cy="2044440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7027,15 +7038,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>417960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7043,8 +7054,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4671360" y="1895760"/>
-        <a:ext cx="2876400" cy="1343160"/>
+        <a:off x="4759200" y="1906920"/>
+        <a:ext cx="4568400" cy="1870920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7057,15 +7068,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>198360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>353160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>572400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7073,8 +7084,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4098960" y="3360240"/>
-        <a:ext cx="3436920" cy="2981160"/>
+        <a:off x="4253760" y="3975840"/>
+        <a:ext cx="5228280" cy="4534920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7094,11 +7105,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="119.13"/>
@@ -7227,7 +7238,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -10192,7 +10203,7 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -11002,7 +11013,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -11095,7 +11106,7 @@
       <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -11154,28 +11165,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="4" t="n">
         <f aca="false">SUM(B5:B9)</f>
         <v>39871</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="4" t="n">
         <f aca="false">B5</f>
         <v>36905</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="4" t="n">
         <f aca="false">SUM(B6:B9)</f>
         <v>2966</v>
       </c>
@@ -11198,11 +11209,11 @@
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="8.71"/>
@@ -11607,7 +11618,7 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
 Département du développement
-territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+territorial et de l'environnement&amp;CComptage mobilité douce&amp;R&amp;8Service des ponts et chaussées
 Bureau signalisation et circulation
 Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
@@ -11623,11 +11634,11 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="9.59"/>
@@ -13638,7 +13649,7 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
 Département du développement
-territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+territorial et de l'environnement&amp;CComptage mobilité douce&amp;R&amp;8Service des ponts et chaussées
 Bureau signalisation et circulation
 Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
@@ -13651,13 +13662,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="8.71"/>
@@ -13676,12 +13687,14 @@
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="0"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="0"/>
+      <c r="N2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="str">
+      <c r="Z2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
@@ -13693,7 +13706,8 @@
       </c>
       <c r="G3" s="12"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="13" t="str">
+      <c r="K3" s="0"/>
+      <c r="Z3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
@@ -13707,7 +13721,8 @@
         <v> </v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="13" t="str">
+      <c r="K4" s="0"/>
+      <c r="Z4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
@@ -13721,7 +13736,8 @@
         <v> </v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="13" t="str">
+      <c r="K5" s="0"/>
+      <c r="Z5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
@@ -13732,41 +13748,46 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="C7" s="15"/>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="0"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="N7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="59" t="s">
         <v>107</v>
+      </c>
+      <c r="G32" s="0"/>
+      <c r="O32" s="59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="59" t="s">
         <v>109</v>
       </c>
+      <c r="G47" s="0"/>
+      <c r="O47" s="59" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13821,11 +13842,11 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.96805555555556" bottom="0.472222222222222" header="0.708333333333333" footer="0.196527777777778"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
 Département du développement
-territorial et de l'environnement&amp;CComptage hebdomadaire&amp;R&amp;8Service des ponts et chaussées
+territorial et de l'environnement&amp;CComptage mobilité douce&amp;R&amp;8Service des ponts et chaussées
 Bureau signalisation et circulation
 Neuchâtel, le &amp;D</oddHeader>
     <oddFooter>&amp;L&amp;6 &amp;F&amp;R&amp;8 Page: &amp;P/&amp;N</oddFooter>
@@ -13839,13 +13860,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.96"/>
@@ -13867,12 +13888,14 @@
         <f aca="false">Data_count!B4</f>
         <v> </v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="0"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="0"/>
+      <c r="N2" s="12" t="str">
         <f aca="false">Data_count!B5</f>
         <v> </v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="str">
+      <c r="Z2" s="10" t="str">
         <f aca="false">Data_count!B6</f>
         <v> </v>
       </c>
@@ -13884,7 +13907,8 @@
       </c>
       <c r="G3" s="12"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="13" t="str">
+      <c r="K3" s="0"/>
+      <c r="Z3" s="13" t="str">
         <f aca="false">Data_count!B7</f>
         <v> </v>
       </c>
@@ -13898,7 +13922,8 @@
         <v> </v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="13" t="str">
+      <c r="K4" s="0"/>
+      <c r="Z4" s="13" t="str">
         <f aca="false">Data_count!B8</f>
         <v> </v>
       </c>
@@ -13912,7 +13937,8 @@
         <v> </v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="13" t="str">
+      <c r="K5" s="0"/>
+      <c r="Z5" s="13" t="str">
         <f aca="false">Data_count!B9</f>
         <v> </v>
       </c>
@@ -13925,16 +13951,17 @@
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
       <c r="C7" s="15"/>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="0"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="N7" s="16" t="str">
         <f aca="false">Data_count!B11</f>
         <v> </v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F9" s="60" t="n">
         <f aca="false">Data_class!B10</f>
@@ -13954,243 +13981,175 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" s="65"/>
       <c r="E11" s="66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F11" s="66"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="68"/>
       <c r="E12" s="69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" s="69"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" s="69"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="69" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="69"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" s="73"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="75" t="s">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="B24" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="C24" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="D24" s="75" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="77" t="s">
+      <c r="E24" s="76" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="79" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="79" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="79" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="79" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="77" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C25" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="79" t="s">
-        <v>141</v>
+      <c r="E25" s="79" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="77" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C26" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="79" t="s">
-        <v>144</v>
+      <c r="E26" s="79" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="77" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C27" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="79" t="s">
-        <v>147</v>
+      <c r="E27" s="79" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C28" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="79" t="s">
-        <v>149</v>
+      <c r="E28" s="79" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="77" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C29" s="78" t="n">
         <v>2</v>
@@ -14199,117 +14158,117 @@
         <v>3</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="77" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C30" s="78" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="79" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="78" t="n">
-        <v>115</v>
+        <v>146</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>147</v>
       </c>
       <c r="C31" s="78" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="79" t="n">
-        <v>185</v>
+        <v>3</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="77" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C32" s="78" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="79" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="77" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C33" s="78" t="n">
         <v>2</v>
       </c>
       <c r="D33" s="78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="79" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="77" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C34" s="78" t="n">
         <v>2</v>
       </c>
       <c r="D34" s="78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" s="79" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>162</v>
+        <v>33</v>
+      </c>
+      <c r="B35" s="78" t="n">
+        <v>115</v>
       </c>
       <c r="C35" s="78" t="n">
         <v>2</v>
       </c>
       <c r="D35" s="78" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" s="79" t="s">
-        <v>163</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="79" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="77" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C36" s="78" t="n">
         <v>2</v>
@@ -14318,15 +14277,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="79" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="77" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C37" s="78" t="n">
         <v>2</v>
@@ -14335,36 +14294,100 @@
         <v>4</v>
       </c>
       <c r="E37" s="79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="78" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="81" t="s">
+      <c r="C41" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="81" t="n">
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="D38" s="81" t="n">
+      <c r="D42" s="81" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="59"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="59"/>
-    </row>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E42" s="82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="59"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="59"/>
+    </row>
     <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14426,7 +14449,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.669444444444444" right="0.669444444444444" top="1.96805555555556" bottom="0.472222222222222" header="0.708333333333333" footer="0.196527777777778"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;8République et canton de Neuchâtel
 Département du développement

--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -5789,7 +5789,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="49" t="e">
-        <f>DATEVALUE("31.12."&amp;B16-1)</f>
+        <f>DATEVALUE("01.01."&amp;B16)</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="209">
   <si>
     <t>Data of the count</t>
   </si>
@@ -656,6 +656,12 @@
   </si>
   <si>
     <t>AN_TE</t>
+  </si>
+  <si>
+    <t>Data class</t>
+  </si>
+  <si>
+    <t>total MD</t>
   </si>
 </sst>
 </file>
@@ -3500,7 +3506,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3936,7 +3941,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4034,7 +4038,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4403,7 +4406,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$11</c:f>
+              <c:f>Data_class!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4458,7 +4461,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$11</c:f>
+              <c:f>Data_class!$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4479,7 +4482,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$12</c:f>
+              <c:f>Data_class!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4534,7 +4537,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$12</c:f>
+              <c:f>Data_class!$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4729,7 +4732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$5</c:f>
+              <c:f>Data_class!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4784,7 +4787,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$5</c:f>
+              <c:f>Data_class!$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4802,7 +4805,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$6</c:f>
+              <c:f>Data_class!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4857,7 +4860,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$6</c:f>
+              <c:f>Data_class!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4875,7 +4878,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$7</c:f>
+              <c:f>Data_class!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4933,7 +4936,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$7</c:f>
+              <c:f>Data_class!$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4951,7 +4954,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$8</c:f>
+              <c:f>Data_class!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5006,7 +5009,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$8</c:f>
+              <c:f>Data_class!$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5690,7 +5693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14347,7 +14350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15602,7 +15605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15751,43 +15754,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="74" t="e">
-        <f t="shared" ref="C3:C8" si="0">B3/$B$10</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="52"/>
       <c r="C4" s="74" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C9" si="0">B4/$B$11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="74" t="e">
@@ -15797,7 +15795,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="74" t="e">
@@ -15807,7 +15805,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="74" t="e">
@@ -15817,7 +15815,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="74" t="e">
@@ -15825,38 +15823,57 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <f>SUM(B4:B8)</f>
-        <v>0</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="74" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="79">
+        <f>SUM(B5:B9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B11">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="74" t="e">
-        <f>B11/$B$10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="74" t="e">
+        <f>B14/$B$13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B12">
-        <f>SUM(B5:B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="74" t="e">
-        <f>B12/$B$10</f>
+      <c r="B15">
+        <f>SUM(B6:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="74" t="e">
+        <f>B15/$B$13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15877,7 +15894,7 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16258,7 +16275,7 @@
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17346,7 +17363,7 @@
   </sheetPr>
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17478,7 +17495,7 @@
   </sheetPr>
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17574,15 +17591,15 @@
         <v>140</v>
       </c>
       <c r="F9" s="37">
-        <f>Data_class!B10</f>
+        <f>Data_class!B11</f>
         <v>0</v>
       </c>
       <c r="G9" s="38">
-        <f>Data_class!B11</f>
+        <f>Data_class!B14</f>
         <v>0</v>
       </c>
       <c r="H9" s="39">
-        <f>Data_class!B12</f>
+        <f>Data_class!B15</f>
         <v>0</v>
       </c>
     </row>

--- a/comptages/report/template_yearly_bike.xlsx
+++ b/comptages/report/template_yearly_bike.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="214">
   <si>
     <t>Data of the count</t>
   </si>
@@ -226,9 +226,6 @@
     <t>velo</t>
   </si>
   <si>
-    <t>autres</t>
-  </si>
-  <si>
     <t>Direction 1 :</t>
   </si>
   <si>
@@ -662,6 +659,24 @@
   </si>
   <si>
     <t>total MD</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>Non MD !</t>
+  </si>
+  <si>
+    <t>autres MD</t>
+  </si>
+  <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
+    <t>Piéton</t>
+  </si>
+  <si>
+    <t>Voiture</t>
   </si>
 </sst>
 </file>
@@ -4406,7 +4421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$14</c:f>
+              <c:f>Data_class!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4461,7 +4476,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$14</c:f>
+              <c:f>Data_class!$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4482,11 +4497,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data_class!$A$15</c:f>
+              <c:f>Data_class!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>autres</c:v>
+                  <c:v>autres MD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4537,7 +4552,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Data_class!$B$15</c:f>
+              <c:f>Data_class!$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5841,7 +5856,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -5874,10 +5889,10 @@
         <v>28</v>
       </c>
       <c r="P3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q3" t="s">
         <v>204</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -6536,10 +6551,10 @@
         <v>28</v>
       </c>
       <c r="P20" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -7293,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -7349,7 +7364,7 @@
         <v>28</v>
       </c>
       <c r="O39" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -14381,10 +14396,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -15754,18 +15769,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -15773,17 +15788,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="74" t="e">
-        <f t="shared" ref="C4:C9" si="0">B4/$B$11</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C4:C9" si="0">B4/$B$20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15792,8 +15810,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -15802,8 +15823,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -15812,8 +15836,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -15822,8 +15849,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -15832,48 +15862,160 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="79">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="74" t="e">
+        <f t="shared" ref="C10:C12" si="1">B10/$B$20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="79">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="79">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="79">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="74" t="e">
+        <f t="shared" ref="C13:C18" si="2">B13/$B$20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="79">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="79">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="79">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="79">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="79">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="79">
+      <c r="B20">
+        <f>SUM(B4:B18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="79">
         <f>SUM(B5:B9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B14">
+      <c r="B23">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="C14" s="74" t="e">
-        <f>B14/$B$13</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15">
+      <c r="C23" s="74" t="e">
+        <f>B23/$B$22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24">
         <f>SUM(B6:B9)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="74" t="e">
-        <f>B15/$B$13</f>
+      <c r="C24" s="74" t="e">
+        <f>B24/$B$22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15941,7 +16083,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9">
         <f>Data_count!B13</f>
@@ -15955,7 +16097,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9">
         <f>Data_count!B14</f>
@@ -15994,20 +16136,20 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="91"/>
       <c r="E9" s="89"/>
       <c r="F9" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="89"/>
       <c r="J9" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="84"/>
     </row>
@@ -16021,31 +16163,31 @@
         <v>55</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="20">
         <f>D11+E11</f>
@@ -16075,7 +16217,7 @@
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="26">
         <f>D12+E12</f>
@@ -16104,14 +16246,14 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="86"/>
       <c r="C35" s="86"/>
@@ -16126,7 +16268,7 @@
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="86"/>
       <c r="C36" s="86"/>
@@ -16144,7 +16286,7 @@
     </row>
     <row r="37" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="86"/>
       <c r="C37" s="86"/>
@@ -16162,7 +16304,7 @@
     </row>
     <row r="38" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
@@ -16180,7 +16322,7 @@
     </row>
     <row r="39" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="86"/>
       <c r="C39" s="86"/>
@@ -16195,7 +16337,7 @@
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
@@ -16210,7 +16352,7 @@
     </row>
     <row r="41" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
@@ -16318,7 +16460,7 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9">
         <f>Data_count!B13</f>
@@ -16331,7 +16473,7 @@
     </row>
     <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9">
         <f>Data_count!B14</f>
@@ -16347,7 +16489,7 @@
       <c r="A6" s="6"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -16380,39 +16522,39 @@
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="C13" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="H13" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="I13" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="J13" s="33" t="s">
         <v>90</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -16432,7 +16574,7 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -16452,7 +16594,7 @@
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -16472,7 +16614,7 @@
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -16492,7 +16634,7 @@
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -16512,7 +16654,7 @@
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -16532,7 +16674,7 @@
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -16552,7 +16694,7 @@
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -16572,7 +16714,7 @@
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -16592,7 +16734,7 @@
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -16612,7 +16754,7 @@
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -16632,7 +16774,7 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -16652,7 +16794,7 @@
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -16672,7 +16814,7 @@
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -16692,7 +16834,7 @@
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -16712,7 +16854,7 @@
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -16732,7 +16874,7 @@
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -16752,7 +16894,7 @@
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -16772,7 +16914,7 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -16792,7 +16934,7 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -16812,7 +16954,7 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -16832,7 +16974,7 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -16852,7 +16994,7 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -16872,7 +17014,7 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -16895,12 +17037,12 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="34">
         <f t="shared" ref="B40:J40" si="2">SUM(B21:B32)</f>
@@ -16941,7 +17083,7 @@
     </row>
     <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="34">
         <f t="shared" ref="B41:J41" si="3">SUM(B20:B35)</f>
@@ -16982,7 +17124,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="34">
         <f t="shared" ref="B42:J42" si="4">SUM(B20:B37)</f>
@@ -17023,7 +17165,7 @@
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="34">
         <f t="shared" ref="B43:J43" si="5">SUM(B14:B37)</f>
@@ -17066,44 +17208,44 @@
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="D47" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="E47" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="F47" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="G47" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="H47" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="I47" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="J47" s="33" t="s">
         <v>90</v>
-      </c>
-      <c r="J47" s="33" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -17123,7 +17265,7 @@
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -17143,7 +17285,7 @@
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -17163,7 +17305,7 @@
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -17183,7 +17325,7 @@
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -17203,7 +17345,7 @@
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -17223,7 +17365,7 @@
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -17243,7 +17385,7 @@
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -17263,7 +17405,7 @@
     </row>
     <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -17283,7 +17425,7 @@
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -17303,7 +17445,7 @@
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -17323,7 +17465,7 @@
     </row>
     <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -17404,7 +17546,7 @@
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9">
         <f>Data_count!B13</f>
@@ -17417,7 +17559,7 @@
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9">
         <f>Data_count!B14</f>
@@ -17439,20 +17581,20 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="10"/>
       <c r="J7" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="N31" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -17466,10 +17608,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="36" t="s">
         <v>138</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -17544,7 +17686,7 @@
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="9">
         <f>Data_count!B13</f>
@@ -17558,7 +17700,7 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9">
         <f>Data_count!B14</f>
@@ -17588,18 +17730,18 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="37">
-        <f>Data_class!B11</f>
+        <f>Data_class!B20</f>
         <v>0</v>
       </c>
       <c r="G9" s="38">
-        <f>Data_class!B14</f>
+        <f>Data_class!B23</f>
         <v>0</v>
       </c>
       <c r="H9" s="39">
-        <f>Data_class!B15</f>
+        <f>Data_class!B24</f>
         <v>0</v>
       </c>
     </row>
@@ -17608,107 +17750,107 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="89"/>
       <c r="E11" s="101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="84"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="C12" s="95" t="s">
         <v>145</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>146</v>
       </c>
       <c r="D12" s="87"/>
       <c r="E12" s="93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="C13" s="95" t="s">
         <v>149</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>150</v>
       </c>
       <c r="D13" s="87"/>
       <c r="E13" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="C14" s="95" t="s">
         <v>153</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>154</v>
       </c>
       <c r="D14" s="87"/>
       <c r="E14" s="93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="C15" s="98" t="s">
         <v>157</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>158</v>
       </c>
       <c r="D15" s="99"/>
       <c r="E15" s="96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="97"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="C23" s="56" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>162</v>
       </c>
       <c r="D23" s="56" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="58">
         <v>2</v>
@@ -17717,7 +17859,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -17739,10 +17881,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="45" t="s">
         <v>166</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>167</v>
       </c>
       <c r="C26" s="58">
         <v>2</v>
@@ -17751,15 +17893,15 @@
         <v>1</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="58">
         <v>2</v>
@@ -17768,15 +17910,15 @@
         <v>1</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="58">
         <v>1</v>
@@ -17790,10 +17932,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="58">
         <v>1</v>
@@ -17807,10 +17949,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" s="58">
         <v>1</v>
@@ -17824,10 +17966,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="58">
         <v>1</v>
@@ -17841,10 +17983,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="45" t="s">
         <v>175</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>176</v>
       </c>
       <c r="C32" s="58">
         <v>2</v>
@@ -17853,15 +17995,15 @@
         <v>3</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="45" t="s">
         <v>178</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>179</v>
       </c>
       <c r="C33" s="58">
         <v>2</v>
@@ -17870,15 +18012,15 @@
         <v>3</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C34" s="58">
         <v>2</v>
@@ -17887,15 +18029,15 @@
         <v>3</v>
       </c>
       <c r="E34" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="45" t="s">
         <v>183</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>184</v>
       </c>
       <c r="C35" s="58">
         <v>2</v>
@@ -17904,15 +18046,15 @@
         <v>3</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="45" t="s">
         <v>186</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>187</v>
       </c>
       <c r="C36" s="58">
         <v>2</v>
@@ -17921,16 +18063,16 @@
         <v>3</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J36" s="71"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="45" t="s">
         <v>189</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>190</v>
       </c>
       <c r="C37" s="58">
         <v>2</v>
@@ -17939,16 +18081,16 @@
         <v>4</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J37" s="71"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="45" t="s">
         <v>192</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>193</v>
       </c>
       <c r="C38" s="58">
         <v>2</v>
@@ -17957,16 +18099,16 @@
         <v>4</v>
       </c>
       <c r="E38" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J38" s="71"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="58">
         <v>2</v>
@@ -17975,15 +18117,15 @@
         <v>4</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" s="58">
         <v>2</v>
@@ -17992,15 +18134,15 @@
         <v>4</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" s="60">
         <v>3</v>
@@ -18009,7 +18151,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
